--- a/xlsx/tests/calc_tests/DMIN_DMAX_DAVERAGE_DSUM_DCOUNT_DGET.xlsx
+++ b/xlsx/tests/calc_tests/DMIN_DMAX_DAVERAGE_DSUM_DCOUNT_DGET.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F14C7538-B2B9-48A6-BC82-F25E1134C3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5CB621-7AD1-4E28-968F-3108E508AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="2" r:id="rId1"/>
     <sheet name="DGET" sheetId="3" r:id="rId2"/>
+    <sheet name="DATABASE_OTHER" sheetId="4" r:id="rId3"/>
+    <sheet name="DPRODUCT" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="136">
   <si>
     <t>Region</t>
   </si>
@@ -364,7 +366,7 @@
     <t>Counts all numbers in column TRUE (boolean)</t>
   </si>
   <si>
-    <t>Counts all numbers in clumn "true"</t>
+    <t>Counts all numbers in column "true"</t>
   </si>
   <si>
     <t>Doesn't work as it takes as an index</t>
@@ -413,6 +415,33 @@
   </si>
   <si>
     <t>Text Patterns (multiple matches)</t>
+  </si>
+  <si>
+    <t>DVAR</t>
+  </si>
+  <si>
+    <t>DVARP</t>
+  </si>
+  <si>
+    <t>DSTDEV</t>
+  </si>
+  <si>
+    <t>DSTDEVP</t>
+  </si>
+  <si>
+    <t>DCOUNTA</t>
+  </si>
+  <si>
+    <t>WiDPRODUCT</t>
+  </si>
+  <si>
+    <t>GaDPRODUCT</t>
+  </si>
+  <si>
+    <t>DPRODUCT</t>
+  </si>
+  <si>
+    <t>=DPRODUCT(A1:G11,F1,L16:L17)</t>
   </si>
 </sst>
 </file>
@@ -972,8 +1001,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6792,4 +6821,5833 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDBCBF8-640E-41D1-8EDD-17D0208381AB}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1009"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="9.140625"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1" s="59">
+        <v>1</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="58">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="60">
+        <v>120</v>
+      </c>
+      <c r="F2" s="61">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="62">
+        <v>45306</v>
+      </c>
+      <c r="H2" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="61">
+        <v>1</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="60">
+        <v>80</v>
+      </c>
+      <c r="F3" s="61">
+        <v>9600</v>
+      </c>
+      <c r="G3" s="62">
+        <v>45324</v>
+      </c>
+      <c r="H3" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="61">
+        <v>1</v>
+      </c>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="60">
+        <v>200</v>
+      </c>
+      <c r="F4" s="61">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="62">
+        <v>45392</v>
+      </c>
+      <c r="H4" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="61">
+        <v>1</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="60">
+        <v>150</v>
+      </c>
+      <c r="F5" s="61">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="62">
+        <v>45369</v>
+      </c>
+      <c r="H5" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="61">
+        <v>1</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="60">
+        <v>50</v>
+      </c>
+      <c r="F6" s="61">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="62">
+        <v>45434</v>
+      </c>
+      <c r="H6" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="61">
+        <v>12</v>
+      </c>
+      <c r="L6" s="61">
+        <v>1</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61" t="str">
+        <f>" Berlin"</f>
+        <v xml:space="preserve"> Berlin</v>
+      </c>
+      <c r="P6" s="61" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="60">
+        <v>300</v>
+      </c>
+      <c r="F7" s="61">
+        <v>30000</v>
+      </c>
+      <c r="G7" s="62">
+        <v>45481</v>
+      </c>
+      <c r="H7" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="61" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="61">
+        <v>1</v>
+      </c>
+      <c r="L7" s="61">
+        <v>1</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="61" t="str">
+        <f>" Berlin "</f>
+        <v xml:space="preserve"> Berlin </v>
+      </c>
+      <c r="P7" s="61"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="60">
+        <v>100</v>
+      </c>
+      <c r="F8" s="61">
+        <v>11000</v>
+      </c>
+      <c r="G8" s="62">
+        <v>45503</v>
+      </c>
+      <c r="H8" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="61">
+        <v>2</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="60">
+        <v>400</v>
+      </c>
+      <c r="F9" s="61">
+        <v>38000</v>
+      </c>
+      <c r="G9" s="62">
+        <v>45515</v>
+      </c>
+      <c r="H9" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="61">
+        <v>23</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="61">
+        <v>1</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="61"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="60">
+        <v>250</v>
+      </c>
+      <c r="F10" s="61">
+        <v>24000</v>
+      </c>
+      <c r="G10" s="62">
+        <v>45571</v>
+      </c>
+      <c r="H10" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="61">
+        <v>455</v>
+      </c>
+      <c r="J10" s="61">
+        <v>23</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="61">
+        <v>12</v>
+      </c>
+      <c r="M10" s="61" t="str">
+        <f>" aa"</f>
+        <v xml:space="preserve"> aa</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="61">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="63">
+        <v>200</v>
+      </c>
+      <c r="F11" s="61">
+        <v>19800</v>
+      </c>
+      <c r="G11" s="62">
+        <v>45621</v>
+      </c>
+      <c r="H11" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="61">
+        <v>2</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="61"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="F12" s="55">
+        <f>SUM(F2:F11)</f>
+        <v>185400</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="14">
+        <v>6</v>
+      </c>
+      <c r="J13" s="14">
+        <v>7</v>
+      </c>
+      <c r="K13" s="14">
+        <v>8</v>
+      </c>
+      <c r="L13" s="14">
+        <v>9</v>
+      </c>
+      <c r="M13" s="14">
+        <v>10</v>
+      </c>
+      <c r="N13" s="14">
+        <v>11</v>
+      </c>
+      <c r="O13" s="14">
+        <v>12</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="D16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14">
+        <v>18</v>
+      </c>
+      <c r="G18" s="14">
+        <v>19</v>
+      </c>
+      <c r="H18" s="14">
+        <v>20</v>
+      </c>
+      <c r="I18" s="14">
+        <v>21</v>
+      </c>
+      <c r="J18" s="14">
+        <v>22</v>
+      </c>
+      <c r="K18" s="14">
+        <v>23</v>
+      </c>
+      <c r="L18" s="14">
+        <v>24</v>
+      </c>
+      <c r="M18" s="14">
+        <v>25</v>
+      </c>
+      <c r="N18" s="14">
+        <v>26</v>
+      </c>
+      <c r="O18" s="14">
+        <v>27</v>
+      </c>
+      <c r="P18" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15" t="str">
+        <f>"Region"</f>
+        <v>Region</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="19" t="str">
+        <f t="shared" ref="K20:L20" si="0">"East"</f>
+        <v>East</v>
+      </c>
+      <c r="L20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>East</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="I23" s="14">
+        <v>29</v>
+      </c>
+      <c r="J23" s="14">
+        <v>30</v>
+      </c>
+      <c r="K23" s="14">
+        <v>31</v>
+      </c>
+      <c r="L23" s="14">
+        <v>32</v>
+      </c>
+      <c r="M23" s="14">
+        <v>33</v>
+      </c>
+      <c r="N23" s="14">
+        <v>34</v>
+      </c>
+      <c r="O23" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="I24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="56">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="I25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="30">
+        <f>DVAR($A$1:$G$11,$F$1,A14:A15)</f>
+        <v>57000000</v>
+      </c>
+      <c r="C28" s="30">
+        <f>DVARP($A$1:$G$11,$F$1,A14:A15)</f>
+        <v>42750000</v>
+      </c>
+      <c r="D28" s="30">
+        <f>DSTDEV($A$1:$G$11,$F$1,A14:A15)</f>
+        <v>7549.83443527075</v>
+      </c>
+      <c r="E28" s="30">
+        <f>DSTDEVP($A$1:$G$11,$F$1,A14:A15)</f>
+        <v>6538.3484153110103</v>
+      </c>
+      <c r="F28" s="30">
+        <f>DCOUNTA($A$1:$G$11,$F$1,A14:A15)</f>
+        <v>4</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="28">
+        <v>2</v>
+      </c>
+      <c r="B29" s="30">
+        <f>DVAR($A$1:$G$11,$E$1,B14:C15)</f>
+        <v>3200</v>
+      </c>
+      <c r="C29" s="30">
+        <f>DVARP($A$1:$G$11,E1,B14:C15)</f>
+        <v>1600</v>
+      </c>
+      <c r="D29" s="30">
+        <f>DSTDEV($A$1:$G$11,E1,B14:C15)</f>
+        <v>56.568542494923804</v>
+      </c>
+      <c r="E29" s="30">
+        <f>DSTDEVP($A$1:$G$11,E1,B14:C15)</f>
+        <v>40</v>
+      </c>
+      <c r="F29" s="30">
+        <f>DCOUNTA($A$1:$G$11,E1,B14:C15)</f>
+        <v>2</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="28">
+        <v>3</v>
+      </c>
+      <c r="B30" s="30">
+        <f>DVAR(A1:G11,F1,D14:E16)</f>
+        <v>18000000</v>
+      </c>
+      <c r="C30" s="30">
+        <f>DVARP($A$1:$G$11,F1,D14:E16)</f>
+        <v>9000000</v>
+      </c>
+      <c r="D30" s="30">
+        <f>DSTDEV($A$1:$G$11,F1,D14:E16)</f>
+        <v>4242.6406871192848</v>
+      </c>
+      <c r="E30" s="30">
+        <f>DSTDEVP($A$1:$G$11,F1,D14:E16)</f>
+        <v>3000</v>
+      </c>
+      <c r="F30" s="30">
+        <f>DCOUNTA($A$1:$G$11,F1,D14:E16)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="28">
+        <v>4</v>
+      </c>
+      <c r="B31" s="30">
+        <f>DVAR(A1:G11,F1,F14:F15)</f>
+        <v>79758095.238095209</v>
+      </c>
+      <c r="C31" s="30">
+        <f>DVARP(A1:G11,F1,F14:F15)</f>
+        <v>68364081.632653058</v>
+      </c>
+      <c r="D31" s="30">
+        <f>DSTDEV(A1:G11,F1,F14:F15)</f>
+        <v>8930.7387845628546</v>
+      </c>
+      <c r="E31" s="30">
+        <f>DSTDEVP(A1:G11,F1,F14:F15)</f>
+        <v>8268.2574725665781</v>
+      </c>
+      <c r="F31" s="30">
+        <f>DCOUNTA(A1:G11,F1,F14:F15)</f>
+        <v>7</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="28">
+        <v>5</v>
+      </c>
+      <c r="B32" s="30">
+        <f>DVAR(A1:G11,F1,G14:H15)</f>
+        <v>15480000</v>
+      </c>
+      <c r="C32" s="30">
+        <f>DVARP(A1:G11,F1,G14:H15)</f>
+        <v>10320000</v>
+      </c>
+      <c r="D32" s="30">
+        <f>DSTDEV(A1:G11,F1,G14:H15)</f>
+        <v>3934.4631145812004</v>
+      </c>
+      <c r="E32" s="30">
+        <f>DSTDEVP(A1:G11,F1,G14:H15)</f>
+        <v>3212.4756808418019</v>
+      </c>
+      <c r="F32" s="30">
+        <f>DCOUNTA(A1:G11,F1,G14:H15)</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="28">
+        <v>6</v>
+      </c>
+      <c r="B33" s="30">
+        <f>DVAR(A1:G11,F1,I14:I15)</f>
+        <v>104268000</v>
+      </c>
+      <c r="C33" s="30">
+        <f>DVARP(A1:G11,F1,I14:I15)</f>
+        <v>83414400</v>
+      </c>
+      <c r="D33" s="30">
+        <f>DSTDEV(A1:G11,F1,I14:I15)</f>
+        <v>10211.170354077931</v>
+      </c>
+      <c r="E33" s="30">
+        <f>DSTDEVP(A1:G11,F1,I14:I15)</f>
+        <v>9133.1484166195387</v>
+      </c>
+      <c r="F33" s="30">
+        <f>DCOUNTA(A1:G11,F1,I14:I15)</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="28">
+        <v>7</v>
+      </c>
+      <c r="B34" s="30">
+        <f>DVAR(A1:G11,F1,J14:J15)</f>
+        <v>131040000</v>
+      </c>
+      <c r="C34" s="30">
+        <f>DVARP(A1:G11,F1,J14:J15)</f>
+        <v>98280000</v>
+      </c>
+      <c r="D34" s="30">
+        <f>DSTDEV(A1:G11,F1,J14:J15)</f>
+        <v>11447.270417003348</v>
+      </c>
+      <c r="E34" s="30">
+        <f>DSTDEVP(A1:G11,F1,J14:J15)</f>
+        <v>9913.6269851149827</v>
+      </c>
+      <c r="F34" s="30">
+        <f>DCOUNTA(A1:G11,F1,J14:J15)</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="28">
+        <v>8</v>
+      </c>
+      <c r="B35" s="30">
+        <f>DVAR(A1:G11,F1,K14:K15)</f>
+        <v>99209333.333333328</v>
+      </c>
+      <c r="C35" s="30">
+        <f>DVARP(A1:G11,F1,K14:K15)</f>
+        <v>89288400</v>
+      </c>
+      <c r="D35" s="30">
+        <f>DSTDEV(A1:G11,F1,K14:K15)</f>
+        <v>9960.388211979156</v>
+      </c>
+      <c r="E35" s="30">
+        <f>DSTDEVP(A1:G11,F1,K14:K15)</f>
+        <v>9449.2539388038458</v>
+      </c>
+      <c r="F35" s="30">
+        <f>DCOUNTA(A1:G11,F1,K14:K15)</f>
+        <v>10</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="28">
+        <v>9</v>
+      </c>
+      <c r="B36" s="30" t="e">
+        <f>DVAR(A1:G11,F1,L14:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="30" t="e">
+        <f>DVARP(A1:G11,F1,L14:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="30" t="e">
+        <f>DSTDEV(A1:G11,F1,L14:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="30" t="e">
+        <f>DSTDEVP(A1:G11,F1,L14:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="30">
+        <f>DCOUNTA(A1:G11,F1,L14:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="28">
+        <v>10</v>
+      </c>
+      <c r="B37" s="30" t="e">
+        <f>DVAR(A1:G11,F1,M14:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="30" t="e">
+        <f>DVARP(A1:G11,F1,M14:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="30" t="e">
+        <f>DSTDEV(A1:G11,F1,M14:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="30" t="e">
+        <f>DSTDEVP(A1:G11,F1,M14:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="30">
+        <f>DCOUNTA(A1:G11,F1,M14:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="28">
+        <v>11</v>
+      </c>
+      <c r="B38" s="30">
+        <f>DVAR(A1:G11,F1,N14:N15)</f>
+        <v>99209333.333333328</v>
+      </c>
+      <c r="C38" s="30">
+        <f>DVARP(A1:G11,F1,N14:N15)</f>
+        <v>89288400</v>
+      </c>
+      <c r="D38" s="30">
+        <f>DSTDEV(A1:G11,F1,N14:N15)</f>
+        <v>9960.388211979156</v>
+      </c>
+      <c r="E38" s="30">
+        <f>DSTDEVP(A1:G11,F1,N14:N15)</f>
+        <v>9449.2539388038458</v>
+      </c>
+      <c r="F38" s="30">
+        <f>DCOUNTA(A1:G11,F1,N14:N15)</f>
+        <v>10</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="28">
+        <v>12</v>
+      </c>
+      <c r="B39" s="30">
+        <f>DVAR(A1:G11,F1,O14:O15)</f>
+        <v>32000000</v>
+      </c>
+      <c r="C39" s="30">
+        <f>DVARP(A1:G11,F1,O14:O15)</f>
+        <v>16000000</v>
+      </c>
+      <c r="D39" s="30">
+        <f>DSTDEV(A1:G11,F1,O14:O15)</f>
+        <v>5656.8542494923804</v>
+      </c>
+      <c r="E39" s="30">
+        <f>DSTDEVP(A1:G11,F1,O14:O15)</f>
+        <v>4000</v>
+      </c>
+      <c r="F39" s="30">
+        <f>DCOUNTA(A1:G11,F1,O14:O15)</f>
+        <v>2</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="28">
+        <v>13</v>
+      </c>
+      <c r="B40" s="30">
+        <f>DVAR(A1:H11,F1,A19:A20)</f>
+        <v>40986666.666666701</v>
+      </c>
+      <c r="C40" s="30">
+        <f>DVARP(A1:H11,F1,A19:A20)</f>
+        <v>34155555.555555552</v>
+      </c>
+      <c r="D40" s="30">
+        <f>DSTDEV(A1:H11,F1,A19:A20)</f>
+        <v>6402.082994359469</v>
+      </c>
+      <c r="E40" s="30">
+        <f>DSTDEVP(A1:H11,F1,A19:A20)</f>
+        <v>5844.2754517181638</v>
+      </c>
+      <c r="F40" s="30">
+        <f>DCOUNTA(A1:H11,F1,A19:A20)</f>
+        <v>6</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="28">
+        <v>14</v>
+      </c>
+      <c r="B41" s="30" t="e">
+        <f>DVAR(A1:H11,F1,B19:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="30" t="e">
+        <f>DVARP(A1:H11,F1,B19:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="30" t="e">
+        <f>DSTDEV(A1:H11,F1,B19:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="30" t="e">
+        <f>DSTDEVP(A1:H11,F1,B19:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="30">
+        <f>DCOUNTA(A1:H11,F1,B19:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="28">
+        <v>15</v>
+      </c>
+      <c r="B42" s="30" t="e">
+        <f>DVAR(A1:H11,F1,C19:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C42" s="30" t="e">
+        <f>DVARP(A1:H11,F1,C19:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="30" t="e">
+        <f>DSTDEV(A1:H11,F1,C19:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="30" t="e">
+        <f>DSTDEVP(A1:H11,F1,C19:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="30">
+        <f>DCOUNTA(A1:H11,F1,C19:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="28">
+        <v>16</v>
+      </c>
+      <c r="B43" s="30" t="e">
+        <f>DVAR(A1:H1,F1,D19:D20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="30" t="e">
+        <f>DVARP(A1:H1,F1,D19:D20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="30" t="e">
+        <f>DSTDEV(A1:H1,F1,D19:D20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="30" t="e">
+        <f>DSTDEVP(A1:H1,F1,D19:D20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="30" t="e">
+        <f>DCOUNTA(A1:H1,F1,D19:D20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="28">
+        <v>17</v>
+      </c>
+      <c r="B44" s="30" t="e">
+        <f>DVAR(A1:H1,A22,E19:E20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="30" t="e">
+        <f>DVARP(A1:H1,A22,E19:E20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" s="30" t="e">
+        <f>DSTDEV(A1:H1,A22,E19:E20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" s="30" t="e">
+        <f>DSTDEVP(A1:H1,A22,E19:E20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" s="30" t="e">
+        <f>DCOUNTA(A1:H1,A22,E19:E20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="28">
+        <v>18</v>
+      </c>
+      <c r="B45" s="30" t="e">
+        <f>DVAR(A1:H11,F1,F19:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C45" s="30" t="e">
+        <f>DVARP(A1:H11,F1,F19:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="30" t="e">
+        <f>DSTDEV(A1:H11,F1,F19:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="30" t="e">
+        <f>DSTDEVP(A1:H11,F1,F19:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="30">
+        <f>DCOUNTA(A1:H11,F1,F19:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="28">
+        <v>19</v>
+      </c>
+      <c r="B46" s="30" t="e">
+        <f>DVAR(A1:H11,F1,G19:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" s="30" t="e">
+        <f>DVARP(A1:H11,F1,G19:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="30" t="e">
+        <f>DSTDEV(A1:H11,F1,G19:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="30" t="e">
+        <f>DSTDEVP(A1:H11,F1,G19:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="30">
+        <f>DCOUNTA(A1:H11,F1,G19:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="28">
+        <v>20</v>
+      </c>
+      <c r="B47" s="30" t="e">
+        <f>DVAR(A2:H11,F1,H19:H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" s="30" t="e">
+        <f>DVARP(A2:H11,F1,H19:H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" s="30" t="e">
+        <f>DSTDEV(A2:H11,F1,H19:H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="30" t="e">
+        <f>DSTDEVP(A2:H11,F1,H19:H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="30" t="e">
+        <f>DCOUNTA(A2:H11,F1,H19:H20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="28">
+        <v>21</v>
+      </c>
+      <c r="B48" s="30">
+        <f>DVAR(A1:H11,F1,I19:I20)</f>
+        <v>307253333.33333331</v>
+      </c>
+      <c r="C48" s="30">
+        <f>DVARP(A1:H11,F1,I19:I20)</f>
+        <v>204835555.55555555</v>
+      </c>
+      <c r="D48" s="30">
+        <f>DSTDEV(A1:H11,F1,I19:I20)</f>
+        <v>17528.643225684449</v>
+      </c>
+      <c r="E48" s="30">
+        <f>DSTDEVP(A1:H11,F1,I19:I20)</f>
+        <v>14312.077262073299</v>
+      </c>
+      <c r="F48" s="30">
+        <f>DCOUNTA(A1:H11,F1,I19:I20)</f>
+        <v>3</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="28">
+        <v>22</v>
+      </c>
+      <c r="B49" s="30">
+        <f>DVAR(A1:H11,F1,J19:J20)</f>
+        <v>307253333.33333331</v>
+      </c>
+      <c r="C49" s="30">
+        <f>DVARP(A1:H11,F1,J19:J20)</f>
+        <v>204835555.55555555</v>
+      </c>
+      <c r="D49" s="30">
+        <f>DSTDEV(A1:H11,F1,J19:J20)</f>
+        <v>17528.643225684449</v>
+      </c>
+      <c r="E49" s="30">
+        <f>DSTDEVP(A1:H11,F1,J19:J20)</f>
+        <v>14312.077262073299</v>
+      </c>
+      <c r="F49" s="30">
+        <f>DCOUNTA(A1:H11,F1,J19:J20)</f>
+        <v>3</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="28">
+        <v>23</v>
+      </c>
+      <c r="B50" s="30">
+        <f>DVAR(A1:H11,F1,K19:K20)</f>
+        <v>57000000</v>
+      </c>
+      <c r="C50" s="30">
+        <f>DVARP(A1:H11,F1,K19:K20)</f>
+        <v>42750000</v>
+      </c>
+      <c r="D50" s="30">
+        <f>DSTDEV(A1:H11,F1,K19:K20)</f>
+        <v>7549.83443527075</v>
+      </c>
+      <c r="E50" s="30">
+        <f>DSTDEVP(A1:H11,F1,K19:K20)</f>
+        <v>6538.3484153110103</v>
+      </c>
+      <c r="F50" s="30">
+        <f>DCOUNTA(A1:H11,F1,K19:K20)</f>
+        <v>4</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="28">
+        <v>24</v>
+      </c>
+      <c r="B51" s="30" t="e">
+        <f>DVAR(A1:H11,F1,L19:L20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="30" t="e">
+        <f>DVARP(A1:H11,F1,L19:L20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="30" t="e">
+        <f>DSTDEV(A1:H11,F1,L19:L20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="30" t="e">
+        <f>DSTDEVP(A1:H11,F1,L19:L20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="30">
+        <f>DCOUNTA(A1:H11,F1,L19:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="28">
+        <v>25</v>
+      </c>
+      <c r="B52" s="30">
+        <f>DVAR(A1:H11,6,M19:M20)</f>
+        <v>57000000</v>
+      </c>
+      <c r="C52" s="30">
+        <f>DVARP(A1:H11,6,M19:M20)</f>
+        <v>42750000</v>
+      </c>
+      <c r="D52" s="30">
+        <f>DSTDEV(A1:H11,6,M19:M20)</f>
+        <v>7549.83443527075</v>
+      </c>
+      <c r="E52" s="30">
+        <f>DSTDEVP(A1:H11,6,M19:M20)</f>
+        <v>6538.3484153110103</v>
+      </c>
+      <c r="F52" s="30">
+        <f>DCOUNTA(A1:H11,6,M19:M20)</f>
+        <v>4</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="28">
+        <v>25</v>
+      </c>
+      <c r="B53" s="30" t="e">
+        <f>DVAR(A1:H11,0,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="30" t="e">
+        <f>DVARP(A1:H11,0,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" s="30" t="e">
+        <f>DSTDEV(A1:H11,0,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" s="30" t="e">
+        <f>DSTDEVP(A1:H11,0,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="30" t="e">
+        <f>DCOUNTA(A1:H11,0,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="28">
+        <v>25</v>
+      </c>
+      <c r="B54" s="30" t="e">
+        <f>DVAR(A1:H11,9,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="30" t="e">
+        <f>DVARP(A1:H11,9,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" s="30" t="e">
+        <f>DSTDEV(A1:H11,9,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" s="30" t="e">
+        <f>DSTDEVP(A1:H11,9,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="30" t="e">
+        <f>DCOUNTA(A1:H11,9,M19:M20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="28">
+        <v>28</v>
+      </c>
+      <c r="B55" s="30">
+        <f>DVAR(A1:H11,F1,P19:P20)</f>
+        <v>99209333.333333328</v>
+      </c>
+      <c r="C55" s="30">
+        <f>DVARP(A1:H11,F1,P19:P20)</f>
+        <v>89288400</v>
+      </c>
+      <c r="D55" s="30">
+        <f>DSTDEV(A1:H11,F1,P19:P20)</f>
+        <v>9960.388211979156</v>
+      </c>
+      <c r="E55" s="30">
+        <f>DSTDEVP(A1:H11,F1,P19:P20)</f>
+        <v>9449.2539388038458</v>
+      </c>
+      <c r="F55" s="30">
+        <f>DCOUNTA(A1:H11,F1,P19:P20)</f>
+        <v>10</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="28">
+        <v>29</v>
+      </c>
+      <c r="B56" s="30">
+        <f>DVAR(A1:K11,F1,I24:I25)</f>
+        <v>34250000</v>
+      </c>
+      <c r="C56" s="30">
+        <f>DVARP(A1:K11,F1,I24:I25)</f>
+        <v>25687500</v>
+      </c>
+      <c r="D56" s="30">
+        <f>DSTDEV(A1:K11,F1,I24:I25)</f>
+        <v>5852.3499553598122</v>
+      </c>
+      <c r="E56" s="30">
+        <f>DSTDEVP(A1:K11,F1,I24:I25)</f>
+        <v>5068.283733178323</v>
+      </c>
+      <c r="F56" s="30">
+        <f>DCOUNTA(A1:K11,F1,I24:I25)</f>
+        <v>4</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="28">
+        <v>30</v>
+      </c>
+      <c r="B57" s="30">
+        <f>DVAR(A1:K11,F1,J24:J25)</f>
+        <v>120714666.6666667</v>
+      </c>
+      <c r="C57" s="30">
+        <f>DVARP(A1:K11,F1,J24:J25)</f>
+        <v>100595555.55555555</v>
+      </c>
+      <c r="D57" s="30">
+        <f>DSTDEV(A1:K11,F1,J24:J25)</f>
+        <v>10987.022647954573</v>
+      </c>
+      <c r="E57" s="30">
+        <f>DSTDEVP(A1:K11,F1,J24:J25)</f>
+        <v>10029.7335735081</v>
+      </c>
+      <c r="F57" s="30">
+        <f>DCOUNTA(A1:K11,F1,J24:J25)</f>
+        <v>6</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="28">
+        <v>31</v>
+      </c>
+      <c r="B58" s="30">
+        <f>DVAR(A1:O11,F1,K24:K25)</f>
+        <v>117440000</v>
+      </c>
+      <c r="C58" s="30">
+        <f>DVARP(A1:O11,F1,K24:K25)</f>
+        <v>88080000</v>
+      </c>
+      <c r="D58" s="30">
+        <f>DSTDEV(A1:O11,F1,K24:K25)</f>
+        <v>10836.973747315253</v>
+      </c>
+      <c r="E58" s="30">
+        <f>DSTDEVP(A1:O11,F1,K24:K25)</f>
+        <v>9385.0945653200524</v>
+      </c>
+      <c r="F58" s="30">
+        <f>DCOUNTA(A1:O11,F1,K24:K25)</f>
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="28">
+        <v>32</v>
+      </c>
+      <c r="B59" s="30">
+        <f>DVAR(A1:O11,F1,L24:L25)</f>
+        <v>257613333.33333337</v>
+      </c>
+      <c r="C59" s="30">
+        <f>DVARP(A1:O11,F1,L24:L25)</f>
+        <v>171742222.22222221</v>
+      </c>
+      <c r="D59" s="30">
+        <f>DSTDEV(A1:O11,F1,L24:L25)</f>
+        <v>16050.337483471598</v>
+      </c>
+      <c r="E59" s="30">
+        <f>DSTDEVP(A1:O11,F1,L24:L25)</f>
+        <v>13105.04567799068</v>
+      </c>
+      <c r="F59" s="30">
+        <f>DCOUNTA(A1:O11,F1,L24:L25)</f>
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="28">
+        <v>33</v>
+      </c>
+      <c r="B60" s="30">
+        <f>DVAR(A1:O11,F1,M24:M25)</f>
+        <v>16333333.333333334</v>
+      </c>
+      <c r="C60" s="30">
+        <f>DVARP(A1:O11,F1,M24:M25)</f>
+        <v>12250000</v>
+      </c>
+      <c r="D60" s="30">
+        <f>DSTDEV(A1:O11,F1,M24:M25)</f>
+        <v>4041.4518843273804</v>
+      </c>
+      <c r="E60" s="30">
+        <f>DSTDEVP(A1:O11,F1,M24:M25)</f>
+        <v>3500</v>
+      </c>
+      <c r="F60" s="30">
+        <f>DCOUNTA(A1:O11,F1,M24:M25)</f>
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="28">
+        <v>34</v>
+      </c>
+      <c r="B61" s="30">
+        <f>DVAR(A1:P11,P1,N24:N25)</f>
+        <v>18</v>
+      </c>
+      <c r="C61" s="30">
+        <f>DVARP(A1:P11,P1,N24:N25)</f>
+        <v>9</v>
+      </c>
+      <c r="D61" s="30">
+        <f>DSTDEV(A1:P11,P1,N24:N25)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="E61" s="30">
+        <f>DSTDEVP(A1:P11,P1,N24:N25)</f>
+        <v>3</v>
+      </c>
+      <c r="F61" s="30">
+        <f>DCOUNTA(A1:P11,P1,N24:N25)</f>
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62" s="30">
+        <f>DVAR($A$1:$G$11,6.7,O24:O25)</f>
+        <v>57000000</v>
+      </c>
+      <c r="C62" s="30">
+        <f>DVARP($A$1:$G$11,6.1,O24:O25)</f>
+        <v>42750000</v>
+      </c>
+      <c r="D62" s="30" t="e">
+        <f>DSTDEV($A$1:$G$11,-1,O24:O25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E62" s="30">
+        <f>DSTDEVP($A$1:$G$11,6.99,O24:O25)</f>
+        <v>6538.3484153110103</v>
+      </c>
+      <c r="F62" s="30">
+        <f>DCOUNTA($A$1:$G$11,6,O24:O25)</f>
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="F63" s="30">
+        <f>DCOUNTA($A$1:$P$11,"Numbers",P19:P20)</f>
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="F64" s="30">
+        <f>DCOUNTA($A$1:$P$11,1,P19:P20)</f>
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>107</v>
+      </c>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="6:10">
+      <c r="F65" s="30">
+        <f>DCOUNTA($A$1:$P$11,"1",P19:P20)</f>
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="6:10">
+      <c r="F66" s="30">
+        <f>DCOUNTA($A$1:$P$11,TRUE,P2:P19)</f>
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="6:10">
+      <c r="F67" s="30">
+        <f>DCOUNTA($A$1:$P$11,"true",P2:P19)</f>
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="6:10">
+      <c r="F68" s="30" t="e">
+        <f>DCOUNTA($A$1:$P$11,1/3,P2:P19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="6:10">
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="6:10">
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="6:10">
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="6:10">
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="6:10">
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="6:10">
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="6:10">
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="6:10">
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="6:10">
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="6:10">
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="6:10">
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="6:10">
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="8"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" s="8"/>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="8"/>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" s="8"/>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="8"/>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="8"/>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="8"/>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="8"/>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="8"/>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" s="8"/>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" s="8"/>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="8"/>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" s="8"/>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" s="8"/>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" s="8"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="8"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="8"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="8"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="8"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="8"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="8"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="8"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="8"/>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" s="8"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="8"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="8"/>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" s="8"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="8"/>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" s="8"/>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" s="8"/>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" s="8"/>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" s="8"/>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" s="8"/>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" s="8"/>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" s="8"/>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" s="8"/>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" s="8"/>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" s="8"/>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="8"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="8"/>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" s="8"/>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" s="8"/>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" s="8"/>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" s="8"/>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" s="8"/>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" s="8"/>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" s="8"/>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" s="8"/>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" s="8"/>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" s="8"/>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" s="8"/>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" s="8"/>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" s="8"/>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" s="8"/>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" s="8"/>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" s="8"/>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" s="8"/>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" s="8"/>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" s="8"/>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" s="8"/>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" s="8"/>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" s="8"/>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" s="8"/>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" s="8"/>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" s="8"/>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" s="8"/>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" s="8"/>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" s="8"/>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" s="8"/>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" s="8"/>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" s="8"/>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" s="8"/>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" s="8"/>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" s="8"/>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" s="8"/>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" s="8"/>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" s="8"/>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" s="8"/>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" s="8"/>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" s="8"/>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" s="8"/>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" s="8"/>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" s="8"/>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" s="8"/>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" s="8"/>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" s="8"/>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" s="8"/>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" s="8"/>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" s="8"/>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" s="8"/>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" s="8"/>
+    </row>
+    <row r="230" spans="10:10">
+      <c r="J230" s="8"/>
+    </row>
+    <row r="231" spans="10:10">
+      <c r="J231" s="8"/>
+    </row>
+    <row r="232" spans="10:10">
+      <c r="J232" s="8"/>
+    </row>
+    <row r="233" spans="10:10">
+      <c r="J233" s="8"/>
+    </row>
+    <row r="234" spans="10:10">
+      <c r="J234" s="8"/>
+    </row>
+    <row r="235" spans="10:10">
+      <c r="J235" s="8"/>
+    </row>
+    <row r="236" spans="10:10">
+      <c r="J236" s="8"/>
+    </row>
+    <row r="237" spans="10:10">
+      <c r="J237" s="8"/>
+    </row>
+    <row r="238" spans="10:10">
+      <c r="J238" s="8"/>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" s="8"/>
+    </row>
+    <row r="240" spans="10:10">
+      <c r="J240" s="8"/>
+    </row>
+    <row r="241" spans="10:10">
+      <c r="J241" s="8"/>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" s="8"/>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" s="8"/>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" s="8"/>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" s="8"/>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" s="8"/>
+    </row>
+    <row r="247" spans="10:10">
+      <c r="J247" s="8"/>
+    </row>
+    <row r="248" spans="10:10">
+      <c r="J248" s="8"/>
+    </row>
+    <row r="249" spans="10:10">
+      <c r="J249" s="8"/>
+    </row>
+    <row r="250" spans="10:10">
+      <c r="J250" s="8"/>
+    </row>
+    <row r="251" spans="10:10">
+      <c r="J251" s="8"/>
+    </row>
+    <row r="252" spans="10:10">
+      <c r="J252" s="8"/>
+    </row>
+    <row r="253" spans="10:10">
+      <c r="J253" s="8"/>
+    </row>
+    <row r="254" spans="10:10">
+      <c r="J254" s="8"/>
+    </row>
+    <row r="255" spans="10:10">
+      <c r="J255" s="8"/>
+    </row>
+    <row r="256" spans="10:10">
+      <c r="J256" s="8"/>
+    </row>
+    <row r="257" spans="10:10">
+      <c r="J257" s="8"/>
+    </row>
+    <row r="258" spans="10:10">
+      <c r="J258" s="8"/>
+    </row>
+    <row r="259" spans="10:10">
+      <c r="J259" s="8"/>
+    </row>
+    <row r="260" spans="10:10">
+      <c r="J260" s="8"/>
+    </row>
+    <row r="261" spans="10:10">
+      <c r="J261" s="8"/>
+    </row>
+    <row r="262" spans="10:10">
+      <c r="J262" s="8"/>
+    </row>
+    <row r="263" spans="10:10">
+      <c r="J263" s="8"/>
+    </row>
+    <row r="264" spans="10:10">
+      <c r="J264" s="8"/>
+    </row>
+    <row r="265" spans="10:10">
+      <c r="J265" s="8"/>
+    </row>
+    <row r="266" spans="10:10">
+      <c r="J266" s="8"/>
+    </row>
+    <row r="267" spans="10:10">
+      <c r="J267" s="8"/>
+    </row>
+    <row r="268" spans="10:10">
+      <c r="J268" s="8"/>
+    </row>
+    <row r="269" spans="10:10">
+      <c r="J269" s="8"/>
+    </row>
+    <row r="270" spans="10:10">
+      <c r="J270" s="8"/>
+    </row>
+    <row r="271" spans="10:10">
+      <c r="J271" s="8"/>
+    </row>
+    <row r="272" spans="10:10">
+      <c r="J272" s="8"/>
+    </row>
+    <row r="273" spans="10:10">
+      <c r="J273" s="8"/>
+    </row>
+    <row r="274" spans="10:10">
+      <c r="J274" s="8"/>
+    </row>
+    <row r="275" spans="10:10">
+      <c r="J275" s="8"/>
+    </row>
+    <row r="276" spans="10:10">
+      <c r="J276" s="8"/>
+    </row>
+    <row r="277" spans="10:10">
+      <c r="J277" s="8"/>
+    </row>
+    <row r="278" spans="10:10">
+      <c r="J278" s="8"/>
+    </row>
+    <row r="279" spans="10:10">
+      <c r="J279" s="8"/>
+    </row>
+    <row r="280" spans="10:10">
+      <c r="J280" s="8"/>
+    </row>
+    <row r="281" spans="10:10">
+      <c r="J281" s="8"/>
+    </row>
+    <row r="282" spans="10:10">
+      <c r="J282" s="8"/>
+    </row>
+    <row r="283" spans="10:10">
+      <c r="J283" s="8"/>
+    </row>
+    <row r="284" spans="10:10">
+      <c r="J284" s="8"/>
+    </row>
+    <row r="285" spans="10:10">
+      <c r="J285" s="8"/>
+    </row>
+    <row r="286" spans="10:10">
+      <c r="J286" s="8"/>
+    </row>
+    <row r="287" spans="10:10">
+      <c r="J287" s="8"/>
+    </row>
+    <row r="288" spans="10:10">
+      <c r="J288" s="8"/>
+    </row>
+    <row r="289" spans="10:10">
+      <c r="J289" s="8"/>
+    </row>
+    <row r="290" spans="10:10">
+      <c r="J290" s="8"/>
+    </row>
+    <row r="291" spans="10:10">
+      <c r="J291" s="8"/>
+    </row>
+    <row r="292" spans="10:10">
+      <c r="J292" s="8"/>
+    </row>
+    <row r="293" spans="10:10">
+      <c r="J293" s="8"/>
+    </row>
+    <row r="294" spans="10:10">
+      <c r="J294" s="8"/>
+    </row>
+    <row r="295" spans="10:10">
+      <c r="J295" s="8"/>
+    </row>
+    <row r="296" spans="10:10">
+      <c r="J296" s="8"/>
+    </row>
+    <row r="297" spans="10:10">
+      <c r="J297" s="8"/>
+    </row>
+    <row r="298" spans="10:10">
+      <c r="J298" s="8"/>
+    </row>
+    <row r="299" spans="10:10">
+      <c r="J299" s="8"/>
+    </row>
+    <row r="300" spans="10:10">
+      <c r="J300" s="8"/>
+    </row>
+    <row r="301" spans="10:10">
+      <c r="J301" s="8"/>
+    </row>
+    <row r="302" spans="10:10">
+      <c r="J302" s="8"/>
+    </row>
+    <row r="303" spans="10:10">
+      <c r="J303" s="8"/>
+    </row>
+    <row r="304" spans="10:10">
+      <c r="J304" s="8"/>
+    </row>
+    <row r="305" spans="10:10">
+      <c r="J305" s="8"/>
+    </row>
+    <row r="306" spans="10:10">
+      <c r="J306" s="8"/>
+    </row>
+    <row r="307" spans="10:10">
+      <c r="J307" s="8"/>
+    </row>
+    <row r="308" spans="10:10">
+      <c r="J308" s="8"/>
+    </row>
+    <row r="309" spans="10:10">
+      <c r="J309" s="8"/>
+    </row>
+    <row r="310" spans="10:10">
+      <c r="J310" s="8"/>
+    </row>
+    <row r="311" spans="10:10">
+      <c r="J311" s="8"/>
+    </row>
+    <row r="312" spans="10:10">
+      <c r="J312" s="8"/>
+    </row>
+    <row r="313" spans="10:10">
+      <c r="J313" s="8"/>
+    </row>
+    <row r="314" spans="10:10">
+      <c r="J314" s="8"/>
+    </row>
+    <row r="315" spans="10:10">
+      <c r="J315" s="8"/>
+    </row>
+    <row r="316" spans="10:10">
+      <c r="J316" s="8"/>
+    </row>
+    <row r="317" spans="10:10">
+      <c r="J317" s="8"/>
+    </row>
+    <row r="318" spans="10:10">
+      <c r="J318" s="8"/>
+    </row>
+    <row r="319" spans="10:10">
+      <c r="J319" s="8"/>
+    </row>
+    <row r="320" spans="10:10">
+      <c r="J320" s="8"/>
+    </row>
+    <row r="321" spans="10:10">
+      <c r="J321" s="8"/>
+    </row>
+    <row r="322" spans="10:10">
+      <c r="J322" s="8"/>
+    </row>
+    <row r="323" spans="10:10">
+      <c r="J323" s="8"/>
+    </row>
+    <row r="324" spans="10:10">
+      <c r="J324" s="8"/>
+    </row>
+    <row r="325" spans="10:10">
+      <c r="J325" s="8"/>
+    </row>
+    <row r="326" spans="10:10">
+      <c r="J326" s="8"/>
+    </row>
+    <row r="327" spans="10:10">
+      <c r="J327" s="8"/>
+    </row>
+    <row r="328" spans="10:10">
+      <c r="J328" s="8"/>
+    </row>
+    <row r="329" spans="10:10">
+      <c r="J329" s="8"/>
+    </row>
+    <row r="330" spans="10:10">
+      <c r="J330" s="8"/>
+    </row>
+    <row r="331" spans="10:10">
+      <c r="J331" s="8"/>
+    </row>
+    <row r="332" spans="10:10">
+      <c r="J332" s="8"/>
+    </row>
+    <row r="333" spans="10:10">
+      <c r="J333" s="8"/>
+    </row>
+    <row r="334" spans="10:10">
+      <c r="J334" s="8"/>
+    </row>
+    <row r="335" spans="10:10">
+      <c r="J335" s="8"/>
+    </row>
+    <row r="336" spans="10:10">
+      <c r="J336" s="8"/>
+    </row>
+    <row r="337" spans="10:10">
+      <c r="J337" s="8"/>
+    </row>
+    <row r="338" spans="10:10">
+      <c r="J338" s="8"/>
+    </row>
+    <row r="339" spans="10:10">
+      <c r="J339" s="8"/>
+    </row>
+    <row r="340" spans="10:10">
+      <c r="J340" s="8"/>
+    </row>
+    <row r="341" spans="10:10">
+      <c r="J341" s="8"/>
+    </row>
+    <row r="342" spans="10:10">
+      <c r="J342" s="8"/>
+    </row>
+    <row r="343" spans="10:10">
+      <c r="J343" s="8"/>
+    </row>
+    <row r="344" spans="10:10">
+      <c r="J344" s="8"/>
+    </row>
+    <row r="345" spans="10:10">
+      <c r="J345" s="8"/>
+    </row>
+    <row r="346" spans="10:10">
+      <c r="J346" s="8"/>
+    </row>
+    <row r="347" spans="10:10">
+      <c r="J347" s="8"/>
+    </row>
+    <row r="348" spans="10:10">
+      <c r="J348" s="8"/>
+    </row>
+    <row r="349" spans="10:10">
+      <c r="J349" s="8"/>
+    </row>
+    <row r="350" spans="10:10">
+      <c r="J350" s="8"/>
+    </row>
+    <row r="351" spans="10:10">
+      <c r="J351" s="8"/>
+    </row>
+    <row r="352" spans="10:10">
+      <c r="J352" s="8"/>
+    </row>
+    <row r="353" spans="10:10">
+      <c r="J353" s="8"/>
+    </row>
+    <row r="354" spans="10:10">
+      <c r="J354" s="8"/>
+    </row>
+    <row r="355" spans="10:10">
+      <c r="J355" s="8"/>
+    </row>
+    <row r="356" spans="10:10">
+      <c r="J356" s="8"/>
+    </row>
+    <row r="357" spans="10:10">
+      <c r="J357" s="8"/>
+    </row>
+    <row r="358" spans="10:10">
+      <c r="J358" s="8"/>
+    </row>
+    <row r="359" spans="10:10">
+      <c r="J359" s="8"/>
+    </row>
+    <row r="360" spans="10:10">
+      <c r="J360" s="8"/>
+    </row>
+    <row r="361" spans="10:10">
+      <c r="J361" s="8"/>
+    </row>
+    <row r="362" spans="10:10">
+      <c r="J362" s="8"/>
+    </row>
+    <row r="363" spans="10:10">
+      <c r="J363" s="8"/>
+    </row>
+    <row r="364" spans="10:10">
+      <c r="J364" s="8"/>
+    </row>
+    <row r="365" spans="10:10">
+      <c r="J365" s="8"/>
+    </row>
+    <row r="366" spans="10:10">
+      <c r="J366" s="8"/>
+    </row>
+    <row r="367" spans="10:10">
+      <c r="J367" s="8"/>
+    </row>
+    <row r="368" spans="10:10">
+      <c r="J368" s="8"/>
+    </row>
+    <row r="369" spans="10:10">
+      <c r="J369" s="8"/>
+    </row>
+    <row r="370" spans="10:10">
+      <c r="J370" s="8"/>
+    </row>
+    <row r="371" spans="10:10">
+      <c r="J371" s="8"/>
+    </row>
+    <row r="372" spans="10:10">
+      <c r="J372" s="8"/>
+    </row>
+    <row r="373" spans="10:10">
+      <c r="J373" s="8"/>
+    </row>
+    <row r="374" spans="10:10">
+      <c r="J374" s="8"/>
+    </row>
+    <row r="375" spans="10:10">
+      <c r="J375" s="8"/>
+    </row>
+    <row r="376" spans="10:10">
+      <c r="J376" s="8"/>
+    </row>
+    <row r="377" spans="10:10">
+      <c r="J377" s="8"/>
+    </row>
+    <row r="378" spans="10:10">
+      <c r="J378" s="8"/>
+    </row>
+    <row r="379" spans="10:10">
+      <c r="J379" s="8"/>
+    </row>
+    <row r="380" spans="10:10">
+      <c r="J380" s="8"/>
+    </row>
+    <row r="381" spans="10:10">
+      <c r="J381" s="8"/>
+    </row>
+    <row r="382" spans="10:10">
+      <c r="J382" s="8"/>
+    </row>
+    <row r="383" spans="10:10">
+      <c r="J383" s="8"/>
+    </row>
+    <row r="384" spans="10:10">
+      <c r="J384" s="8"/>
+    </row>
+    <row r="385" spans="10:10">
+      <c r="J385" s="8"/>
+    </row>
+    <row r="386" spans="10:10">
+      <c r="J386" s="8"/>
+    </row>
+    <row r="387" spans="10:10">
+      <c r="J387" s="8"/>
+    </row>
+    <row r="388" spans="10:10">
+      <c r="J388" s="8"/>
+    </row>
+    <row r="389" spans="10:10">
+      <c r="J389" s="8"/>
+    </row>
+    <row r="390" spans="10:10">
+      <c r="J390" s="8"/>
+    </row>
+    <row r="391" spans="10:10">
+      <c r="J391" s="8"/>
+    </row>
+    <row r="392" spans="10:10">
+      <c r="J392" s="8"/>
+    </row>
+    <row r="393" spans="10:10">
+      <c r="J393" s="8"/>
+    </row>
+    <row r="394" spans="10:10">
+      <c r="J394" s="8"/>
+    </row>
+    <row r="395" spans="10:10">
+      <c r="J395" s="8"/>
+    </row>
+    <row r="396" spans="10:10">
+      <c r="J396" s="8"/>
+    </row>
+    <row r="397" spans="10:10">
+      <c r="J397" s="8"/>
+    </row>
+    <row r="398" spans="10:10">
+      <c r="J398" s="8"/>
+    </row>
+    <row r="399" spans="10:10">
+      <c r="J399" s="8"/>
+    </row>
+    <row r="400" spans="10:10">
+      <c r="J400" s="8"/>
+    </row>
+    <row r="401" spans="10:10">
+      <c r="J401" s="8"/>
+    </row>
+    <row r="402" spans="10:10">
+      <c r="J402" s="8"/>
+    </row>
+    <row r="403" spans="10:10">
+      <c r="J403" s="8"/>
+    </row>
+    <row r="404" spans="10:10">
+      <c r="J404" s="8"/>
+    </row>
+    <row r="405" spans="10:10">
+      <c r="J405" s="8"/>
+    </row>
+    <row r="406" spans="10:10">
+      <c r="J406" s="8"/>
+    </row>
+    <row r="407" spans="10:10">
+      <c r="J407" s="8"/>
+    </row>
+    <row r="408" spans="10:10">
+      <c r="J408" s="8"/>
+    </row>
+    <row r="409" spans="10:10">
+      <c r="J409" s="8"/>
+    </row>
+    <row r="410" spans="10:10">
+      <c r="J410" s="8"/>
+    </row>
+    <row r="411" spans="10:10">
+      <c r="J411" s="8"/>
+    </row>
+    <row r="412" spans="10:10">
+      <c r="J412" s="8"/>
+    </row>
+    <row r="413" spans="10:10">
+      <c r="J413" s="8"/>
+    </row>
+    <row r="414" spans="10:10">
+      <c r="J414" s="8"/>
+    </row>
+    <row r="415" spans="10:10">
+      <c r="J415" s="8"/>
+    </row>
+    <row r="416" spans="10:10">
+      <c r="J416" s="8"/>
+    </row>
+    <row r="417" spans="10:10">
+      <c r="J417" s="8"/>
+    </row>
+    <row r="418" spans="10:10">
+      <c r="J418" s="8"/>
+    </row>
+    <row r="419" spans="10:10">
+      <c r="J419" s="8"/>
+    </row>
+    <row r="420" spans="10:10">
+      <c r="J420" s="8"/>
+    </row>
+    <row r="421" spans="10:10">
+      <c r="J421" s="8"/>
+    </row>
+    <row r="422" spans="10:10">
+      <c r="J422" s="8"/>
+    </row>
+    <row r="423" spans="10:10">
+      <c r="J423" s="8"/>
+    </row>
+    <row r="424" spans="10:10">
+      <c r="J424" s="8"/>
+    </row>
+    <row r="425" spans="10:10">
+      <c r="J425" s="8"/>
+    </row>
+    <row r="426" spans="10:10">
+      <c r="J426" s="8"/>
+    </row>
+    <row r="427" spans="10:10">
+      <c r="J427" s="8"/>
+    </row>
+    <row r="428" spans="10:10">
+      <c r="J428" s="8"/>
+    </row>
+    <row r="429" spans="10:10">
+      <c r="J429" s="8"/>
+    </row>
+    <row r="430" spans="10:10">
+      <c r="J430" s="8"/>
+    </row>
+    <row r="431" spans="10:10">
+      <c r="J431" s="8"/>
+    </row>
+    <row r="432" spans="10:10">
+      <c r="J432" s="8"/>
+    </row>
+    <row r="433" spans="10:10">
+      <c r="J433" s="8"/>
+    </row>
+    <row r="434" spans="10:10">
+      <c r="J434" s="8"/>
+    </row>
+    <row r="435" spans="10:10">
+      <c r="J435" s="8"/>
+    </row>
+    <row r="436" spans="10:10">
+      <c r="J436" s="8"/>
+    </row>
+    <row r="437" spans="10:10">
+      <c r="J437" s="8"/>
+    </row>
+    <row r="438" spans="10:10">
+      <c r="J438" s="8"/>
+    </row>
+    <row r="439" spans="10:10">
+      <c r="J439" s="8"/>
+    </row>
+    <row r="440" spans="10:10">
+      <c r="J440" s="8"/>
+    </row>
+    <row r="441" spans="10:10">
+      <c r="J441" s="8"/>
+    </row>
+    <row r="442" spans="10:10">
+      <c r="J442" s="8"/>
+    </row>
+    <row r="443" spans="10:10">
+      <c r="J443" s="8"/>
+    </row>
+    <row r="444" spans="10:10">
+      <c r="J444" s="8"/>
+    </row>
+    <row r="445" spans="10:10">
+      <c r="J445" s="8"/>
+    </row>
+    <row r="446" spans="10:10">
+      <c r="J446" s="8"/>
+    </row>
+    <row r="447" spans="10:10">
+      <c r="J447" s="8"/>
+    </row>
+    <row r="448" spans="10:10">
+      <c r="J448" s="8"/>
+    </row>
+    <row r="449" spans="10:10">
+      <c r="J449" s="8"/>
+    </row>
+    <row r="450" spans="10:10">
+      <c r="J450" s="8"/>
+    </row>
+    <row r="451" spans="10:10">
+      <c r="J451" s="8"/>
+    </row>
+    <row r="452" spans="10:10">
+      <c r="J452" s="8"/>
+    </row>
+    <row r="453" spans="10:10">
+      <c r="J453" s="8"/>
+    </row>
+    <row r="454" spans="10:10">
+      <c r="J454" s="8"/>
+    </row>
+    <row r="455" spans="10:10">
+      <c r="J455" s="8"/>
+    </row>
+    <row r="456" spans="10:10">
+      <c r="J456" s="8"/>
+    </row>
+    <row r="457" spans="10:10">
+      <c r="J457" s="8"/>
+    </row>
+    <row r="458" spans="10:10">
+      <c r="J458" s="8"/>
+    </row>
+    <row r="459" spans="10:10">
+      <c r="J459" s="8"/>
+    </row>
+    <row r="460" spans="10:10">
+      <c r="J460" s="8"/>
+    </row>
+    <row r="461" spans="10:10">
+      <c r="J461" s="8"/>
+    </row>
+    <row r="462" spans="10:10">
+      <c r="J462" s="8"/>
+    </row>
+    <row r="463" spans="10:10">
+      <c r="J463" s="8"/>
+    </row>
+    <row r="464" spans="10:10">
+      <c r="J464" s="8"/>
+    </row>
+    <row r="465" spans="10:10">
+      <c r="J465" s="8"/>
+    </row>
+    <row r="466" spans="10:10">
+      <c r="J466" s="8"/>
+    </row>
+    <row r="467" spans="10:10">
+      <c r="J467" s="8"/>
+    </row>
+    <row r="468" spans="10:10">
+      <c r="J468" s="8"/>
+    </row>
+    <row r="469" spans="10:10">
+      <c r="J469" s="8"/>
+    </row>
+    <row r="470" spans="10:10">
+      <c r="J470" s="8"/>
+    </row>
+    <row r="471" spans="10:10">
+      <c r="J471" s="8"/>
+    </row>
+    <row r="472" spans="10:10">
+      <c r="J472" s="8"/>
+    </row>
+    <row r="473" spans="10:10">
+      <c r="J473" s="8"/>
+    </row>
+    <row r="474" spans="10:10">
+      <c r="J474" s="8"/>
+    </row>
+    <row r="475" spans="10:10">
+      <c r="J475" s="8"/>
+    </row>
+    <row r="476" spans="10:10">
+      <c r="J476" s="8"/>
+    </row>
+    <row r="477" spans="10:10">
+      <c r="J477" s="8"/>
+    </row>
+    <row r="478" spans="10:10">
+      <c r="J478" s="8"/>
+    </row>
+    <row r="479" spans="10:10">
+      <c r="J479" s="8"/>
+    </row>
+    <row r="480" spans="10:10">
+      <c r="J480" s="8"/>
+    </row>
+    <row r="481" spans="10:10">
+      <c r="J481" s="8"/>
+    </row>
+    <row r="482" spans="10:10">
+      <c r="J482" s="8"/>
+    </row>
+    <row r="483" spans="10:10">
+      <c r="J483" s="8"/>
+    </row>
+    <row r="484" spans="10:10">
+      <c r="J484" s="8"/>
+    </row>
+    <row r="485" spans="10:10">
+      <c r="J485" s="8"/>
+    </row>
+    <row r="486" spans="10:10">
+      <c r="J486" s="8"/>
+    </row>
+    <row r="487" spans="10:10">
+      <c r="J487" s="8"/>
+    </row>
+    <row r="488" spans="10:10">
+      <c r="J488" s="8"/>
+    </row>
+    <row r="489" spans="10:10">
+      <c r="J489" s="8"/>
+    </row>
+    <row r="490" spans="10:10">
+      <c r="J490" s="8"/>
+    </row>
+    <row r="491" spans="10:10">
+      <c r="J491" s="8"/>
+    </row>
+    <row r="492" spans="10:10">
+      <c r="J492" s="8"/>
+    </row>
+    <row r="493" spans="10:10">
+      <c r="J493" s="8"/>
+    </row>
+    <row r="494" spans="10:10">
+      <c r="J494" s="8"/>
+    </row>
+    <row r="495" spans="10:10">
+      <c r="J495" s="8"/>
+    </row>
+    <row r="496" spans="10:10">
+      <c r="J496" s="8"/>
+    </row>
+    <row r="497" spans="10:10">
+      <c r="J497" s="8"/>
+    </row>
+    <row r="498" spans="10:10">
+      <c r="J498" s="8"/>
+    </row>
+    <row r="499" spans="10:10">
+      <c r="J499" s="8"/>
+    </row>
+    <row r="500" spans="10:10">
+      <c r="J500" s="8"/>
+    </row>
+    <row r="501" spans="10:10">
+      <c r="J501" s="8"/>
+    </row>
+    <row r="502" spans="10:10">
+      <c r="J502" s="8"/>
+    </row>
+    <row r="503" spans="10:10">
+      <c r="J503" s="8"/>
+    </row>
+    <row r="504" spans="10:10">
+      <c r="J504" s="8"/>
+    </row>
+    <row r="505" spans="10:10">
+      <c r="J505" s="8"/>
+    </row>
+    <row r="506" spans="10:10">
+      <c r="J506" s="8"/>
+    </row>
+    <row r="507" spans="10:10">
+      <c r="J507" s="8"/>
+    </row>
+    <row r="508" spans="10:10">
+      <c r="J508" s="8"/>
+    </row>
+    <row r="509" spans="10:10">
+      <c r="J509" s="8"/>
+    </row>
+    <row r="510" spans="10:10">
+      <c r="J510" s="8"/>
+    </row>
+    <row r="511" spans="10:10">
+      <c r="J511" s="8"/>
+    </row>
+    <row r="512" spans="10:10">
+      <c r="J512" s="8"/>
+    </row>
+    <row r="513" spans="10:10">
+      <c r="J513" s="8"/>
+    </row>
+    <row r="514" spans="10:10">
+      <c r="J514" s="8"/>
+    </row>
+    <row r="515" spans="10:10">
+      <c r="J515" s="8"/>
+    </row>
+    <row r="516" spans="10:10">
+      <c r="J516" s="8"/>
+    </row>
+    <row r="517" spans="10:10">
+      <c r="J517" s="8"/>
+    </row>
+    <row r="518" spans="10:10">
+      <c r="J518" s="8"/>
+    </row>
+    <row r="519" spans="10:10">
+      <c r="J519" s="8"/>
+    </row>
+    <row r="520" spans="10:10">
+      <c r="J520" s="8"/>
+    </row>
+    <row r="521" spans="10:10">
+      <c r="J521" s="8"/>
+    </row>
+    <row r="522" spans="10:10">
+      <c r="J522" s="8"/>
+    </row>
+    <row r="523" spans="10:10">
+      <c r="J523" s="8"/>
+    </row>
+    <row r="524" spans="10:10">
+      <c r="J524" s="8"/>
+    </row>
+    <row r="525" spans="10:10">
+      <c r="J525" s="8"/>
+    </row>
+    <row r="526" spans="10:10">
+      <c r="J526" s="8"/>
+    </row>
+    <row r="527" spans="10:10">
+      <c r="J527" s="8"/>
+    </row>
+    <row r="528" spans="10:10">
+      <c r="J528" s="8"/>
+    </row>
+    <row r="529" spans="10:10">
+      <c r="J529" s="8"/>
+    </row>
+    <row r="530" spans="10:10">
+      <c r="J530" s="8"/>
+    </row>
+    <row r="531" spans="10:10">
+      <c r="J531" s="8"/>
+    </row>
+    <row r="532" spans="10:10">
+      <c r="J532" s="8"/>
+    </row>
+    <row r="533" spans="10:10">
+      <c r="J533" s="8"/>
+    </row>
+    <row r="534" spans="10:10">
+      <c r="J534" s="8"/>
+    </row>
+    <row r="535" spans="10:10">
+      <c r="J535" s="8"/>
+    </row>
+    <row r="536" spans="10:10">
+      <c r="J536" s="8"/>
+    </row>
+    <row r="537" spans="10:10">
+      <c r="J537" s="8"/>
+    </row>
+    <row r="538" spans="10:10">
+      <c r="J538" s="8"/>
+    </row>
+    <row r="539" spans="10:10">
+      <c r="J539" s="8"/>
+    </row>
+    <row r="540" spans="10:10">
+      <c r="J540" s="8"/>
+    </row>
+    <row r="541" spans="10:10">
+      <c r="J541" s="8"/>
+    </row>
+    <row r="542" spans="10:10">
+      <c r="J542" s="8"/>
+    </row>
+    <row r="543" spans="10:10">
+      <c r="J543" s="8"/>
+    </row>
+    <row r="544" spans="10:10">
+      <c r="J544" s="8"/>
+    </row>
+    <row r="545" spans="10:10">
+      <c r="J545" s="8"/>
+    </row>
+    <row r="546" spans="10:10">
+      <c r="J546" s="8"/>
+    </row>
+    <row r="547" spans="10:10">
+      <c r="J547" s="8"/>
+    </row>
+    <row r="548" spans="10:10">
+      <c r="J548" s="8"/>
+    </row>
+    <row r="549" spans="10:10">
+      <c r="J549" s="8"/>
+    </row>
+    <row r="550" spans="10:10">
+      <c r="J550" s="8"/>
+    </row>
+    <row r="551" spans="10:10">
+      <c r="J551" s="8"/>
+    </row>
+    <row r="552" spans="10:10">
+      <c r="J552" s="8"/>
+    </row>
+    <row r="553" spans="10:10">
+      <c r="J553" s="8"/>
+    </row>
+    <row r="554" spans="10:10">
+      <c r="J554" s="8"/>
+    </row>
+    <row r="555" spans="10:10">
+      <c r="J555" s="8"/>
+    </row>
+    <row r="556" spans="10:10">
+      <c r="J556" s="8"/>
+    </row>
+    <row r="557" spans="10:10">
+      <c r="J557" s="8"/>
+    </row>
+    <row r="558" spans="10:10">
+      <c r="J558" s="8"/>
+    </row>
+    <row r="559" spans="10:10">
+      <c r="J559" s="8"/>
+    </row>
+    <row r="560" spans="10:10">
+      <c r="J560" s="8"/>
+    </row>
+    <row r="561" spans="10:10">
+      <c r="J561" s="8"/>
+    </row>
+    <row r="562" spans="10:10">
+      <c r="J562" s="8"/>
+    </row>
+    <row r="563" spans="10:10">
+      <c r="J563" s="8"/>
+    </row>
+    <row r="564" spans="10:10">
+      <c r="J564" s="8"/>
+    </row>
+    <row r="565" spans="10:10">
+      <c r="J565" s="8"/>
+    </row>
+    <row r="566" spans="10:10">
+      <c r="J566" s="8"/>
+    </row>
+    <row r="567" spans="10:10">
+      <c r="J567" s="8"/>
+    </row>
+    <row r="568" spans="10:10">
+      <c r="J568" s="8"/>
+    </row>
+    <row r="569" spans="10:10">
+      <c r="J569" s="8"/>
+    </row>
+    <row r="570" spans="10:10">
+      <c r="J570" s="8"/>
+    </row>
+    <row r="571" spans="10:10">
+      <c r="J571" s="8"/>
+    </row>
+    <row r="572" spans="10:10">
+      <c r="J572" s="8"/>
+    </row>
+    <row r="573" spans="10:10">
+      <c r="J573" s="8"/>
+    </row>
+    <row r="574" spans="10:10">
+      <c r="J574" s="8"/>
+    </row>
+    <row r="575" spans="10:10">
+      <c r="J575" s="8"/>
+    </row>
+    <row r="576" spans="10:10">
+      <c r="J576" s="8"/>
+    </row>
+    <row r="577" spans="10:10">
+      <c r="J577" s="8"/>
+    </row>
+    <row r="578" spans="10:10">
+      <c r="J578" s="8"/>
+    </row>
+    <row r="579" spans="10:10">
+      <c r="J579" s="8"/>
+    </row>
+    <row r="580" spans="10:10">
+      <c r="J580" s="8"/>
+    </row>
+    <row r="581" spans="10:10">
+      <c r="J581" s="8"/>
+    </row>
+    <row r="582" spans="10:10">
+      <c r="J582" s="8"/>
+    </row>
+    <row r="583" spans="10:10">
+      <c r="J583" s="8"/>
+    </row>
+    <row r="584" spans="10:10">
+      <c r="J584" s="8"/>
+    </row>
+    <row r="585" spans="10:10">
+      <c r="J585" s="8"/>
+    </row>
+    <row r="586" spans="10:10">
+      <c r="J586" s="8"/>
+    </row>
+    <row r="587" spans="10:10">
+      <c r="J587" s="8"/>
+    </row>
+    <row r="588" spans="10:10">
+      <c r="J588" s="8"/>
+    </row>
+    <row r="589" spans="10:10">
+      <c r="J589" s="8"/>
+    </row>
+    <row r="590" spans="10:10">
+      <c r="J590" s="8"/>
+    </row>
+    <row r="591" spans="10:10">
+      <c r="J591" s="8"/>
+    </row>
+    <row r="592" spans="10:10">
+      <c r="J592" s="8"/>
+    </row>
+    <row r="593" spans="10:10">
+      <c r="J593" s="8"/>
+    </row>
+    <row r="594" spans="10:10">
+      <c r="J594" s="8"/>
+    </row>
+    <row r="595" spans="10:10">
+      <c r="J595" s="8"/>
+    </row>
+    <row r="596" spans="10:10">
+      <c r="J596" s="8"/>
+    </row>
+    <row r="597" spans="10:10">
+      <c r="J597" s="8"/>
+    </row>
+    <row r="598" spans="10:10">
+      <c r="J598" s="8"/>
+    </row>
+    <row r="599" spans="10:10">
+      <c r="J599" s="8"/>
+    </row>
+    <row r="600" spans="10:10">
+      <c r="J600" s="8"/>
+    </row>
+    <row r="601" spans="10:10">
+      <c r="J601" s="8"/>
+    </row>
+    <row r="602" spans="10:10">
+      <c r="J602" s="8"/>
+    </row>
+    <row r="603" spans="10:10">
+      <c r="J603" s="8"/>
+    </row>
+    <row r="604" spans="10:10">
+      <c r="J604" s="8"/>
+    </row>
+    <row r="605" spans="10:10">
+      <c r="J605" s="8"/>
+    </row>
+    <row r="606" spans="10:10">
+      <c r="J606" s="8"/>
+    </row>
+    <row r="607" spans="10:10">
+      <c r="J607" s="8"/>
+    </row>
+    <row r="608" spans="10:10">
+      <c r="J608" s="8"/>
+    </row>
+    <row r="609" spans="10:10">
+      <c r="J609" s="8"/>
+    </row>
+    <row r="610" spans="10:10">
+      <c r="J610" s="8"/>
+    </row>
+    <row r="611" spans="10:10">
+      <c r="J611" s="8"/>
+    </row>
+    <row r="612" spans="10:10">
+      <c r="J612" s="8"/>
+    </row>
+    <row r="613" spans="10:10">
+      <c r="J613" s="8"/>
+    </row>
+    <row r="614" spans="10:10">
+      <c r="J614" s="8"/>
+    </row>
+    <row r="615" spans="10:10">
+      <c r="J615" s="8"/>
+    </row>
+    <row r="616" spans="10:10">
+      <c r="J616" s="8"/>
+    </row>
+    <row r="617" spans="10:10">
+      <c r="J617" s="8"/>
+    </row>
+    <row r="618" spans="10:10">
+      <c r="J618" s="8"/>
+    </row>
+    <row r="619" spans="10:10">
+      <c r="J619" s="8"/>
+    </row>
+    <row r="620" spans="10:10">
+      <c r="J620" s="8"/>
+    </row>
+    <row r="621" spans="10:10">
+      <c r="J621" s="8"/>
+    </row>
+    <row r="622" spans="10:10">
+      <c r="J622" s="8"/>
+    </row>
+    <row r="623" spans="10:10">
+      <c r="J623" s="8"/>
+    </row>
+    <row r="624" spans="10:10">
+      <c r="J624" s="8"/>
+    </row>
+    <row r="625" spans="10:10">
+      <c r="J625" s="8"/>
+    </row>
+    <row r="626" spans="10:10">
+      <c r="J626" s="8"/>
+    </row>
+    <row r="627" spans="10:10">
+      <c r="J627" s="8"/>
+    </row>
+    <row r="628" spans="10:10">
+      <c r="J628" s="8"/>
+    </row>
+    <row r="629" spans="10:10">
+      <c r="J629" s="8"/>
+    </row>
+    <row r="630" spans="10:10">
+      <c r="J630" s="8"/>
+    </row>
+    <row r="631" spans="10:10">
+      <c r="J631" s="8"/>
+    </row>
+    <row r="632" spans="10:10">
+      <c r="J632" s="8"/>
+    </row>
+    <row r="633" spans="10:10">
+      <c r="J633" s="8"/>
+    </row>
+    <row r="634" spans="10:10">
+      <c r="J634" s="8"/>
+    </row>
+    <row r="635" spans="10:10">
+      <c r="J635" s="8"/>
+    </row>
+    <row r="636" spans="10:10">
+      <c r="J636" s="8"/>
+    </row>
+    <row r="637" spans="10:10">
+      <c r="J637" s="8"/>
+    </row>
+    <row r="638" spans="10:10">
+      <c r="J638" s="8"/>
+    </row>
+    <row r="639" spans="10:10">
+      <c r="J639" s="8"/>
+    </row>
+    <row r="640" spans="10:10">
+      <c r="J640" s="8"/>
+    </row>
+    <row r="641" spans="10:10">
+      <c r="J641" s="8"/>
+    </row>
+    <row r="642" spans="10:10">
+      <c r="J642" s="8"/>
+    </row>
+    <row r="643" spans="10:10">
+      <c r="J643" s="8"/>
+    </row>
+    <row r="644" spans="10:10">
+      <c r="J644" s="8"/>
+    </row>
+    <row r="645" spans="10:10">
+      <c r="J645" s="8"/>
+    </row>
+    <row r="646" spans="10:10">
+      <c r="J646" s="8"/>
+    </row>
+    <row r="647" spans="10:10">
+      <c r="J647" s="8"/>
+    </row>
+    <row r="648" spans="10:10">
+      <c r="J648" s="8"/>
+    </row>
+    <row r="649" spans="10:10">
+      <c r="J649" s="8"/>
+    </row>
+    <row r="650" spans="10:10">
+      <c r="J650" s="8"/>
+    </row>
+    <row r="651" spans="10:10">
+      <c r="J651" s="8"/>
+    </row>
+    <row r="652" spans="10:10">
+      <c r="J652" s="8"/>
+    </row>
+    <row r="653" spans="10:10">
+      <c r="J653" s="8"/>
+    </row>
+    <row r="654" spans="10:10">
+      <c r="J654" s="8"/>
+    </row>
+    <row r="655" spans="10:10">
+      <c r="J655" s="8"/>
+    </row>
+    <row r="656" spans="10:10">
+      <c r="J656" s="8"/>
+    </row>
+    <row r="657" spans="10:10">
+      <c r="J657" s="8"/>
+    </row>
+    <row r="658" spans="10:10">
+      <c r="J658" s="8"/>
+    </row>
+    <row r="659" spans="10:10">
+      <c r="J659" s="8"/>
+    </row>
+    <row r="660" spans="10:10">
+      <c r="J660" s="8"/>
+    </row>
+    <row r="661" spans="10:10">
+      <c r="J661" s="8"/>
+    </row>
+    <row r="662" spans="10:10">
+      <c r="J662" s="8"/>
+    </row>
+    <row r="663" spans="10:10">
+      <c r="J663" s="8"/>
+    </row>
+    <row r="664" spans="10:10">
+      <c r="J664" s="8"/>
+    </row>
+    <row r="665" spans="10:10">
+      <c r="J665" s="8"/>
+    </row>
+    <row r="666" spans="10:10">
+      <c r="J666" s="8"/>
+    </row>
+    <row r="667" spans="10:10">
+      <c r="J667" s="8"/>
+    </row>
+    <row r="668" spans="10:10">
+      <c r="J668" s="8"/>
+    </row>
+    <row r="669" spans="10:10">
+      <c r="J669" s="8"/>
+    </row>
+    <row r="670" spans="10:10">
+      <c r="J670" s="8"/>
+    </row>
+    <row r="671" spans="10:10">
+      <c r="J671" s="8"/>
+    </row>
+    <row r="672" spans="10:10">
+      <c r="J672" s="8"/>
+    </row>
+    <row r="673" spans="10:10">
+      <c r="J673" s="8"/>
+    </row>
+    <row r="674" spans="10:10">
+      <c r="J674" s="8"/>
+    </row>
+    <row r="675" spans="10:10">
+      <c r="J675" s="8"/>
+    </row>
+    <row r="676" spans="10:10">
+      <c r="J676" s="8"/>
+    </row>
+    <row r="677" spans="10:10">
+      <c r="J677" s="8"/>
+    </row>
+    <row r="678" spans="10:10">
+      <c r="J678" s="8"/>
+    </row>
+    <row r="679" spans="10:10">
+      <c r="J679" s="8"/>
+    </row>
+    <row r="680" spans="10:10">
+      <c r="J680" s="8"/>
+    </row>
+    <row r="681" spans="10:10">
+      <c r="J681" s="8"/>
+    </row>
+    <row r="682" spans="10:10">
+      <c r="J682" s="8"/>
+    </row>
+    <row r="683" spans="10:10">
+      <c r="J683" s="8"/>
+    </row>
+    <row r="684" spans="10:10">
+      <c r="J684" s="8"/>
+    </row>
+    <row r="685" spans="10:10">
+      <c r="J685" s="8"/>
+    </row>
+    <row r="686" spans="10:10">
+      <c r="J686" s="8"/>
+    </row>
+    <row r="687" spans="10:10">
+      <c r="J687" s="8"/>
+    </row>
+    <row r="688" spans="10:10">
+      <c r="J688" s="8"/>
+    </row>
+    <row r="689" spans="10:10">
+      <c r="J689" s="8"/>
+    </row>
+    <row r="690" spans="10:10">
+      <c r="J690" s="8"/>
+    </row>
+    <row r="691" spans="10:10">
+      <c r="J691" s="8"/>
+    </row>
+    <row r="692" spans="10:10">
+      <c r="J692" s="8"/>
+    </row>
+    <row r="693" spans="10:10">
+      <c r="J693" s="8"/>
+    </row>
+    <row r="694" spans="10:10">
+      <c r="J694" s="8"/>
+    </row>
+    <row r="695" spans="10:10">
+      <c r="J695" s="8"/>
+    </row>
+    <row r="696" spans="10:10">
+      <c r="J696" s="8"/>
+    </row>
+    <row r="697" spans="10:10">
+      <c r="J697" s="8"/>
+    </row>
+    <row r="698" spans="10:10">
+      <c r="J698" s="8"/>
+    </row>
+    <row r="699" spans="10:10">
+      <c r="J699" s="8"/>
+    </row>
+    <row r="700" spans="10:10">
+      <c r="J700" s="8"/>
+    </row>
+    <row r="701" spans="10:10">
+      <c r="J701" s="8"/>
+    </row>
+    <row r="702" spans="10:10">
+      <c r="J702" s="8"/>
+    </row>
+    <row r="703" spans="10:10">
+      <c r="J703" s="8"/>
+    </row>
+    <row r="704" spans="10:10">
+      <c r="J704" s="8"/>
+    </row>
+    <row r="705" spans="10:10">
+      <c r="J705" s="8"/>
+    </row>
+    <row r="706" spans="10:10">
+      <c r="J706" s="8"/>
+    </row>
+    <row r="707" spans="10:10">
+      <c r="J707" s="8"/>
+    </row>
+    <row r="708" spans="10:10">
+      <c r="J708" s="8"/>
+    </row>
+    <row r="709" spans="10:10">
+      <c r="J709" s="8"/>
+    </row>
+    <row r="710" spans="10:10">
+      <c r="J710" s="8"/>
+    </row>
+    <row r="711" spans="10:10">
+      <c r="J711" s="8"/>
+    </row>
+    <row r="712" spans="10:10">
+      <c r="J712" s="8"/>
+    </row>
+    <row r="713" spans="10:10">
+      <c r="J713" s="8"/>
+    </row>
+    <row r="714" spans="10:10">
+      <c r="J714" s="8"/>
+    </row>
+    <row r="715" spans="10:10">
+      <c r="J715" s="8"/>
+    </row>
+    <row r="716" spans="10:10">
+      <c r="J716" s="8"/>
+    </row>
+    <row r="717" spans="10:10">
+      <c r="J717" s="8"/>
+    </row>
+    <row r="718" spans="10:10">
+      <c r="J718" s="8"/>
+    </row>
+    <row r="719" spans="10:10">
+      <c r="J719" s="8"/>
+    </row>
+    <row r="720" spans="10:10">
+      <c r="J720" s="8"/>
+    </row>
+    <row r="721" spans="10:10">
+      <c r="J721" s="8"/>
+    </row>
+    <row r="722" spans="10:10">
+      <c r="J722" s="8"/>
+    </row>
+    <row r="723" spans="10:10">
+      <c r="J723" s="8"/>
+    </row>
+    <row r="724" spans="10:10">
+      <c r="J724" s="8"/>
+    </row>
+    <row r="725" spans="10:10">
+      <c r="J725" s="8"/>
+    </row>
+    <row r="726" spans="10:10">
+      <c r="J726" s="8"/>
+    </row>
+    <row r="727" spans="10:10">
+      <c r="J727" s="8"/>
+    </row>
+    <row r="728" spans="10:10">
+      <c r="J728" s="8"/>
+    </row>
+    <row r="729" spans="10:10">
+      <c r="J729" s="8"/>
+    </row>
+    <row r="730" spans="10:10">
+      <c r="J730" s="8"/>
+    </row>
+    <row r="731" spans="10:10">
+      <c r="J731" s="8"/>
+    </row>
+    <row r="732" spans="10:10">
+      <c r="J732" s="8"/>
+    </row>
+    <row r="733" spans="10:10">
+      <c r="J733" s="8"/>
+    </row>
+    <row r="734" spans="10:10">
+      <c r="J734" s="8"/>
+    </row>
+    <row r="735" spans="10:10">
+      <c r="J735" s="8"/>
+    </row>
+    <row r="736" spans="10:10">
+      <c r="J736" s="8"/>
+    </row>
+    <row r="737" spans="10:10">
+      <c r="J737" s="8"/>
+    </row>
+    <row r="738" spans="10:10">
+      <c r="J738" s="8"/>
+    </row>
+    <row r="739" spans="10:10">
+      <c r="J739" s="8"/>
+    </row>
+    <row r="740" spans="10:10">
+      <c r="J740" s="8"/>
+    </row>
+    <row r="741" spans="10:10">
+      <c r="J741" s="8"/>
+    </row>
+    <row r="742" spans="10:10">
+      <c r="J742" s="8"/>
+    </row>
+    <row r="743" spans="10:10">
+      <c r="J743" s="8"/>
+    </row>
+    <row r="744" spans="10:10">
+      <c r="J744" s="8"/>
+    </row>
+    <row r="745" spans="10:10">
+      <c r="J745" s="8"/>
+    </row>
+    <row r="746" spans="10:10">
+      <c r="J746" s="8"/>
+    </row>
+    <row r="747" spans="10:10">
+      <c r="J747" s="8"/>
+    </row>
+    <row r="748" spans="10:10">
+      <c r="J748" s="8"/>
+    </row>
+    <row r="749" spans="10:10">
+      <c r="J749" s="8"/>
+    </row>
+    <row r="750" spans="10:10">
+      <c r="J750" s="8"/>
+    </row>
+    <row r="751" spans="10:10">
+      <c r="J751" s="8"/>
+    </row>
+    <row r="752" spans="10:10">
+      <c r="J752" s="8"/>
+    </row>
+    <row r="753" spans="10:10">
+      <c r="J753" s="8"/>
+    </row>
+    <row r="754" spans="10:10">
+      <c r="J754" s="8"/>
+    </row>
+    <row r="755" spans="10:10">
+      <c r="J755" s="8"/>
+    </row>
+    <row r="756" spans="10:10">
+      <c r="J756" s="8"/>
+    </row>
+    <row r="757" spans="10:10">
+      <c r="J757" s="8"/>
+    </row>
+    <row r="758" spans="10:10">
+      <c r="J758" s="8"/>
+    </row>
+    <row r="759" spans="10:10">
+      <c r="J759" s="8"/>
+    </row>
+    <row r="760" spans="10:10">
+      <c r="J760" s="8"/>
+    </row>
+    <row r="761" spans="10:10">
+      <c r="J761" s="8"/>
+    </row>
+    <row r="762" spans="10:10">
+      <c r="J762" s="8"/>
+    </row>
+    <row r="763" spans="10:10">
+      <c r="J763" s="8"/>
+    </row>
+    <row r="764" spans="10:10">
+      <c r="J764" s="8"/>
+    </row>
+    <row r="765" spans="10:10">
+      <c r="J765" s="8"/>
+    </row>
+    <row r="766" spans="10:10">
+      <c r="J766" s="8"/>
+    </row>
+    <row r="767" spans="10:10">
+      <c r="J767" s="8"/>
+    </row>
+    <row r="768" spans="10:10">
+      <c r="J768" s="8"/>
+    </row>
+    <row r="769" spans="10:10">
+      <c r="J769" s="8"/>
+    </row>
+    <row r="770" spans="10:10">
+      <c r="J770" s="8"/>
+    </row>
+    <row r="771" spans="10:10">
+      <c r="J771" s="8"/>
+    </row>
+    <row r="772" spans="10:10">
+      <c r="J772" s="8"/>
+    </row>
+    <row r="773" spans="10:10">
+      <c r="J773" s="8"/>
+    </row>
+    <row r="774" spans="10:10">
+      <c r="J774" s="8"/>
+    </row>
+    <row r="775" spans="10:10">
+      <c r="J775" s="8"/>
+    </row>
+    <row r="776" spans="10:10">
+      <c r="J776" s="8"/>
+    </row>
+    <row r="777" spans="10:10">
+      <c r="J777" s="8"/>
+    </row>
+    <row r="778" spans="10:10">
+      <c r="J778" s="8"/>
+    </row>
+    <row r="779" spans="10:10">
+      <c r="J779" s="8"/>
+    </row>
+    <row r="780" spans="10:10">
+      <c r="J780" s="8"/>
+    </row>
+    <row r="781" spans="10:10">
+      <c r="J781" s="8"/>
+    </row>
+    <row r="782" spans="10:10">
+      <c r="J782" s="8"/>
+    </row>
+    <row r="783" spans="10:10">
+      <c r="J783" s="8"/>
+    </row>
+    <row r="784" spans="10:10">
+      <c r="J784" s="8"/>
+    </row>
+    <row r="785" spans="10:10">
+      <c r="J785" s="8"/>
+    </row>
+    <row r="786" spans="10:10">
+      <c r="J786" s="8"/>
+    </row>
+    <row r="787" spans="10:10">
+      <c r="J787" s="8"/>
+    </row>
+    <row r="788" spans="10:10">
+      <c r="J788" s="8"/>
+    </row>
+    <row r="789" spans="10:10">
+      <c r="J789" s="8"/>
+    </row>
+    <row r="790" spans="10:10">
+      <c r="J790" s="8"/>
+    </row>
+    <row r="791" spans="10:10">
+      <c r="J791" s="8"/>
+    </row>
+    <row r="792" spans="10:10">
+      <c r="J792" s="8"/>
+    </row>
+    <row r="793" spans="10:10">
+      <c r="J793" s="8"/>
+    </row>
+    <row r="794" spans="10:10">
+      <c r="J794" s="8"/>
+    </row>
+    <row r="795" spans="10:10">
+      <c r="J795" s="8"/>
+    </row>
+    <row r="796" spans="10:10">
+      <c r="J796" s="8"/>
+    </row>
+    <row r="797" spans="10:10">
+      <c r="J797" s="8"/>
+    </row>
+    <row r="798" spans="10:10">
+      <c r="J798" s="8"/>
+    </row>
+    <row r="799" spans="10:10">
+      <c r="J799" s="8"/>
+    </row>
+    <row r="800" spans="10:10">
+      <c r="J800" s="8"/>
+    </row>
+    <row r="801" spans="10:10">
+      <c r="J801" s="8"/>
+    </row>
+    <row r="802" spans="10:10">
+      <c r="J802" s="8"/>
+    </row>
+    <row r="803" spans="10:10">
+      <c r="J803" s="8"/>
+    </row>
+    <row r="804" spans="10:10">
+      <c r="J804" s="8"/>
+    </row>
+    <row r="805" spans="10:10">
+      <c r="J805" s="8"/>
+    </row>
+    <row r="806" spans="10:10">
+      <c r="J806" s="8"/>
+    </row>
+    <row r="807" spans="10:10">
+      <c r="J807" s="8"/>
+    </row>
+    <row r="808" spans="10:10">
+      <c r="J808" s="8"/>
+    </row>
+    <row r="809" spans="10:10">
+      <c r="J809" s="8"/>
+    </row>
+    <row r="810" spans="10:10">
+      <c r="J810" s="8"/>
+    </row>
+    <row r="811" spans="10:10">
+      <c r="J811" s="8"/>
+    </row>
+    <row r="812" spans="10:10">
+      <c r="J812" s="8"/>
+    </row>
+    <row r="813" spans="10:10">
+      <c r="J813" s="8"/>
+    </row>
+    <row r="814" spans="10:10">
+      <c r="J814" s="8"/>
+    </row>
+    <row r="815" spans="10:10">
+      <c r="J815" s="8"/>
+    </row>
+    <row r="816" spans="10:10">
+      <c r="J816" s="8"/>
+    </row>
+    <row r="817" spans="10:10">
+      <c r="J817" s="8"/>
+    </row>
+    <row r="818" spans="10:10">
+      <c r="J818" s="8"/>
+    </row>
+    <row r="819" spans="10:10">
+      <c r="J819" s="8"/>
+    </row>
+    <row r="820" spans="10:10">
+      <c r="J820" s="8"/>
+    </row>
+    <row r="821" spans="10:10">
+      <c r="J821" s="8"/>
+    </row>
+    <row r="822" spans="10:10">
+      <c r="J822" s="8"/>
+    </row>
+    <row r="823" spans="10:10">
+      <c r="J823" s="8"/>
+    </row>
+    <row r="824" spans="10:10">
+      <c r="J824" s="8"/>
+    </row>
+    <row r="825" spans="10:10">
+      <c r="J825" s="8"/>
+    </row>
+    <row r="826" spans="10:10">
+      <c r="J826" s="8"/>
+    </row>
+    <row r="827" spans="10:10">
+      <c r="J827" s="8"/>
+    </row>
+    <row r="828" spans="10:10">
+      <c r="J828" s="8"/>
+    </row>
+    <row r="829" spans="10:10">
+      <c r="J829" s="8"/>
+    </row>
+    <row r="830" spans="10:10">
+      <c r="J830" s="8"/>
+    </row>
+    <row r="831" spans="10:10">
+      <c r="J831" s="8"/>
+    </row>
+    <row r="832" spans="10:10">
+      <c r="J832" s="8"/>
+    </row>
+    <row r="833" spans="10:10">
+      <c r="J833" s="8"/>
+    </row>
+    <row r="834" spans="10:10">
+      <c r="J834" s="8"/>
+    </row>
+    <row r="835" spans="10:10">
+      <c r="J835" s="8"/>
+    </row>
+    <row r="836" spans="10:10">
+      <c r="J836" s="8"/>
+    </row>
+    <row r="837" spans="10:10">
+      <c r="J837" s="8"/>
+    </row>
+    <row r="838" spans="10:10">
+      <c r="J838" s="8"/>
+    </row>
+    <row r="839" spans="10:10">
+      <c r="J839" s="8"/>
+    </row>
+    <row r="840" spans="10:10">
+      <c r="J840" s="8"/>
+    </row>
+    <row r="841" spans="10:10">
+      <c r="J841" s="8"/>
+    </row>
+    <row r="842" spans="10:10">
+      <c r="J842" s="8"/>
+    </row>
+    <row r="843" spans="10:10">
+      <c r="J843" s="8"/>
+    </row>
+    <row r="844" spans="10:10">
+      <c r="J844" s="8"/>
+    </row>
+    <row r="845" spans="10:10">
+      <c r="J845" s="8"/>
+    </row>
+    <row r="846" spans="10:10">
+      <c r="J846" s="8"/>
+    </row>
+    <row r="847" spans="10:10">
+      <c r="J847" s="8"/>
+    </row>
+    <row r="848" spans="10:10">
+      <c r="J848" s="8"/>
+    </row>
+    <row r="849" spans="10:10">
+      <c r="J849" s="8"/>
+    </row>
+    <row r="850" spans="10:10">
+      <c r="J850" s="8"/>
+    </row>
+    <row r="851" spans="10:10">
+      <c r="J851" s="8"/>
+    </row>
+    <row r="852" spans="10:10">
+      <c r="J852" s="8"/>
+    </row>
+    <row r="853" spans="10:10">
+      <c r="J853" s="8"/>
+    </row>
+    <row r="854" spans="10:10">
+      <c r="J854" s="8"/>
+    </row>
+    <row r="855" spans="10:10">
+      <c r="J855" s="8"/>
+    </row>
+    <row r="856" spans="10:10">
+      <c r="J856" s="8"/>
+    </row>
+    <row r="857" spans="10:10">
+      <c r="J857" s="8"/>
+    </row>
+    <row r="858" spans="10:10">
+      <c r="J858" s="8"/>
+    </row>
+    <row r="859" spans="10:10">
+      <c r="J859" s="8"/>
+    </row>
+    <row r="860" spans="10:10">
+      <c r="J860" s="8"/>
+    </row>
+    <row r="861" spans="10:10">
+      <c r="J861" s="8"/>
+    </row>
+    <row r="862" spans="10:10">
+      <c r="J862" s="8"/>
+    </row>
+    <row r="863" spans="10:10">
+      <c r="J863" s="8"/>
+    </row>
+    <row r="864" spans="10:10">
+      <c r="J864" s="8"/>
+    </row>
+    <row r="865" spans="10:10">
+      <c r="J865" s="8"/>
+    </row>
+    <row r="866" spans="10:10">
+      <c r="J866" s="8"/>
+    </row>
+    <row r="867" spans="10:10">
+      <c r="J867" s="8"/>
+    </row>
+    <row r="868" spans="10:10">
+      <c r="J868" s="8"/>
+    </row>
+    <row r="869" spans="10:10">
+      <c r="J869" s="8"/>
+    </row>
+    <row r="870" spans="10:10">
+      <c r="J870" s="8"/>
+    </row>
+    <row r="871" spans="10:10">
+      <c r="J871" s="8"/>
+    </row>
+    <row r="872" spans="10:10">
+      <c r="J872" s="8"/>
+    </row>
+    <row r="873" spans="10:10">
+      <c r="J873" s="8"/>
+    </row>
+    <row r="874" spans="10:10">
+      <c r="J874" s="8"/>
+    </row>
+    <row r="875" spans="10:10">
+      <c r="J875" s="8"/>
+    </row>
+    <row r="876" spans="10:10">
+      <c r="J876" s="8"/>
+    </row>
+    <row r="877" spans="10:10">
+      <c r="J877" s="8"/>
+    </row>
+    <row r="878" spans="10:10">
+      <c r="J878" s="8"/>
+    </row>
+    <row r="879" spans="10:10">
+      <c r="J879" s="8"/>
+    </row>
+    <row r="880" spans="10:10">
+      <c r="J880" s="8"/>
+    </row>
+    <row r="881" spans="10:10">
+      <c r="J881" s="8"/>
+    </row>
+    <row r="882" spans="10:10">
+      <c r="J882" s="8"/>
+    </row>
+    <row r="883" spans="10:10">
+      <c r="J883" s="8"/>
+    </row>
+    <row r="884" spans="10:10">
+      <c r="J884" s="8"/>
+    </row>
+    <row r="885" spans="10:10">
+      <c r="J885" s="8"/>
+    </row>
+    <row r="886" spans="10:10">
+      <c r="J886" s="8"/>
+    </row>
+    <row r="887" spans="10:10">
+      <c r="J887" s="8"/>
+    </row>
+    <row r="888" spans="10:10">
+      <c r="J888" s="8"/>
+    </row>
+    <row r="889" spans="10:10">
+      <c r="J889" s="8"/>
+    </row>
+    <row r="890" spans="10:10">
+      <c r="J890" s="8"/>
+    </row>
+    <row r="891" spans="10:10">
+      <c r="J891" s="8"/>
+    </row>
+    <row r="892" spans="10:10">
+      <c r="J892" s="8"/>
+    </row>
+    <row r="893" spans="10:10">
+      <c r="J893" s="8"/>
+    </row>
+    <row r="894" spans="10:10">
+      <c r="J894" s="8"/>
+    </row>
+    <row r="895" spans="10:10">
+      <c r="J895" s="8"/>
+    </row>
+    <row r="896" spans="10:10">
+      <c r="J896" s="8"/>
+    </row>
+    <row r="897" spans="10:10">
+      <c r="J897" s="8"/>
+    </row>
+    <row r="898" spans="10:10">
+      <c r="J898" s="8"/>
+    </row>
+    <row r="899" spans="10:10">
+      <c r="J899" s="8"/>
+    </row>
+    <row r="900" spans="10:10">
+      <c r="J900" s="8"/>
+    </row>
+    <row r="901" spans="10:10">
+      <c r="J901" s="8"/>
+    </row>
+    <row r="902" spans="10:10">
+      <c r="J902" s="8"/>
+    </row>
+    <row r="903" spans="10:10">
+      <c r="J903" s="8"/>
+    </row>
+    <row r="904" spans="10:10">
+      <c r="J904" s="8"/>
+    </row>
+    <row r="905" spans="10:10">
+      <c r="J905" s="8"/>
+    </row>
+    <row r="906" spans="10:10">
+      <c r="J906" s="8"/>
+    </row>
+    <row r="907" spans="10:10">
+      <c r="J907" s="8"/>
+    </row>
+    <row r="908" spans="10:10">
+      <c r="J908" s="8"/>
+    </row>
+    <row r="909" spans="10:10">
+      <c r="J909" s="8"/>
+    </row>
+    <row r="910" spans="10:10">
+      <c r="J910" s="8"/>
+    </row>
+    <row r="911" spans="10:10">
+      <c r="J911" s="8"/>
+    </row>
+    <row r="912" spans="10:10">
+      <c r="J912" s="8"/>
+    </row>
+    <row r="913" spans="10:10">
+      <c r="J913" s="8"/>
+    </row>
+    <row r="914" spans="10:10">
+      <c r="J914" s="8"/>
+    </row>
+    <row r="915" spans="10:10">
+      <c r="J915" s="8"/>
+    </row>
+    <row r="916" spans="10:10">
+      <c r="J916" s="8"/>
+    </row>
+    <row r="917" spans="10:10">
+      <c r="J917" s="8"/>
+    </row>
+    <row r="918" spans="10:10">
+      <c r="J918" s="8"/>
+    </row>
+    <row r="919" spans="10:10">
+      <c r="J919" s="8"/>
+    </row>
+    <row r="920" spans="10:10">
+      <c r="J920" s="8"/>
+    </row>
+    <row r="921" spans="10:10">
+      <c r="J921" s="8"/>
+    </row>
+    <row r="922" spans="10:10">
+      <c r="J922" s="8"/>
+    </row>
+    <row r="923" spans="10:10">
+      <c r="J923" s="8"/>
+    </row>
+    <row r="924" spans="10:10">
+      <c r="J924" s="8"/>
+    </row>
+    <row r="925" spans="10:10">
+      <c r="J925" s="8"/>
+    </row>
+    <row r="926" spans="10:10">
+      <c r="J926" s="8"/>
+    </row>
+    <row r="927" spans="10:10">
+      <c r="J927" s="8"/>
+    </row>
+    <row r="928" spans="10:10">
+      <c r="J928" s="8"/>
+    </row>
+    <row r="929" spans="10:10">
+      <c r="J929" s="8"/>
+    </row>
+    <row r="930" spans="10:10">
+      <c r="J930" s="8"/>
+    </row>
+    <row r="931" spans="10:10">
+      <c r="J931" s="8"/>
+    </row>
+    <row r="932" spans="10:10">
+      <c r="J932" s="8"/>
+    </row>
+    <row r="933" spans="10:10">
+      <c r="J933" s="8"/>
+    </row>
+    <row r="934" spans="10:10">
+      <c r="J934" s="8"/>
+    </row>
+    <row r="935" spans="10:10">
+      <c r="J935" s="8"/>
+    </row>
+    <row r="936" spans="10:10">
+      <c r="J936" s="8"/>
+    </row>
+    <row r="937" spans="10:10">
+      <c r="J937" s="8"/>
+    </row>
+    <row r="938" spans="10:10">
+      <c r="J938" s="8"/>
+    </row>
+    <row r="939" spans="10:10">
+      <c r="J939" s="8"/>
+    </row>
+    <row r="940" spans="10:10">
+      <c r="J940" s="8"/>
+    </row>
+    <row r="941" spans="10:10">
+      <c r="J941" s="8"/>
+    </row>
+    <row r="942" spans="10:10">
+      <c r="J942" s="8"/>
+    </row>
+    <row r="943" spans="10:10">
+      <c r="J943" s="8"/>
+    </row>
+    <row r="944" spans="10:10">
+      <c r="J944" s="8"/>
+    </row>
+    <row r="945" spans="10:10">
+      <c r="J945" s="8"/>
+    </row>
+    <row r="946" spans="10:10">
+      <c r="J946" s="8"/>
+    </row>
+    <row r="947" spans="10:10">
+      <c r="J947" s="8"/>
+    </row>
+    <row r="948" spans="10:10">
+      <c r="J948" s="8"/>
+    </row>
+    <row r="949" spans="10:10">
+      <c r="J949" s="8"/>
+    </row>
+    <row r="950" spans="10:10">
+      <c r="J950" s="8"/>
+    </row>
+    <row r="951" spans="10:10">
+      <c r="J951" s="8"/>
+    </row>
+    <row r="952" spans="10:10">
+      <c r="J952" s="8"/>
+    </row>
+    <row r="953" spans="10:10">
+      <c r="J953" s="8"/>
+    </row>
+    <row r="954" spans="10:10">
+      <c r="J954" s="8"/>
+    </row>
+    <row r="955" spans="10:10">
+      <c r="J955" s="8"/>
+    </row>
+    <row r="956" spans="10:10">
+      <c r="J956" s="8"/>
+    </row>
+    <row r="957" spans="10:10">
+      <c r="J957" s="8"/>
+    </row>
+    <row r="958" spans="10:10">
+      <c r="J958" s="8"/>
+    </row>
+    <row r="959" spans="10:10">
+      <c r="J959" s="8"/>
+    </row>
+    <row r="960" spans="10:10">
+      <c r="J960" s="8"/>
+    </row>
+    <row r="961" spans="10:10">
+      <c r="J961" s="8"/>
+    </row>
+    <row r="962" spans="10:10">
+      <c r="J962" s="8"/>
+    </row>
+    <row r="963" spans="10:10">
+      <c r="J963" s="8"/>
+    </row>
+    <row r="964" spans="10:10">
+      <c r="J964" s="8"/>
+    </row>
+    <row r="965" spans="10:10">
+      <c r="J965" s="8"/>
+    </row>
+    <row r="966" spans="10:10">
+      <c r="J966" s="8"/>
+    </row>
+    <row r="967" spans="10:10">
+      <c r="J967" s="8"/>
+    </row>
+    <row r="968" spans="10:10">
+      <c r="J968" s="8"/>
+    </row>
+    <row r="969" spans="10:10">
+      <c r="J969" s="8"/>
+    </row>
+    <row r="970" spans="10:10">
+      <c r="J970" s="8"/>
+    </row>
+    <row r="971" spans="10:10">
+      <c r="J971" s="8"/>
+    </row>
+    <row r="972" spans="10:10">
+      <c r="J972" s="8"/>
+    </row>
+    <row r="973" spans="10:10">
+      <c r="J973" s="8"/>
+    </row>
+    <row r="974" spans="10:10">
+      <c r="J974" s="8"/>
+    </row>
+    <row r="975" spans="10:10">
+      <c r="J975" s="8"/>
+    </row>
+    <row r="976" spans="10:10">
+      <c r="J976" s="8"/>
+    </row>
+    <row r="977" spans="10:10">
+      <c r="J977" s="8"/>
+    </row>
+    <row r="978" spans="10:10">
+      <c r="J978" s="8"/>
+    </row>
+    <row r="979" spans="10:10">
+      <c r="J979" s="8"/>
+    </row>
+    <row r="980" spans="10:10">
+      <c r="J980" s="8"/>
+    </row>
+    <row r="981" spans="10:10">
+      <c r="J981" s="8"/>
+    </row>
+    <row r="982" spans="10:10">
+      <c r="J982" s="8"/>
+    </row>
+    <row r="983" spans="10:10">
+      <c r="J983" s="8"/>
+    </row>
+    <row r="984" spans="10:10">
+      <c r="J984" s="8"/>
+    </row>
+    <row r="985" spans="10:10">
+      <c r="J985" s="8"/>
+    </row>
+    <row r="986" spans="10:10">
+      <c r="J986" s="8"/>
+    </row>
+    <row r="987" spans="10:10">
+      <c r="J987" s="8"/>
+    </row>
+    <row r="988" spans="10:10">
+      <c r="J988" s="8"/>
+    </row>
+    <row r="989" spans="10:10">
+      <c r="J989" s="8"/>
+    </row>
+    <row r="990" spans="10:10">
+      <c r="J990" s="8"/>
+    </row>
+    <row r="991" spans="10:10">
+      <c r="J991" s="8"/>
+    </row>
+    <row r="992" spans="10:10">
+      <c r="J992" s="8"/>
+    </row>
+    <row r="993" spans="10:10">
+      <c r="J993" s="8"/>
+    </row>
+    <row r="994" spans="10:10">
+      <c r="J994" s="8"/>
+    </row>
+    <row r="995" spans="10:10">
+      <c r="J995" s="8"/>
+    </row>
+    <row r="996" spans="10:10">
+      <c r="J996" s="8"/>
+    </row>
+    <row r="997" spans="10:10">
+      <c r="J997" s="8"/>
+    </row>
+    <row r="998" spans="10:10">
+      <c r="J998" s="8"/>
+    </row>
+    <row r="999" spans="10:10">
+      <c r="J999" s="8"/>
+    </row>
+    <row r="1000" spans="10:10">
+      <c r="J1000" s="8"/>
+    </row>
+    <row r="1001" spans="10:10">
+      <c r="J1001" s="8"/>
+    </row>
+    <row r="1002" spans="10:10">
+      <c r="J1002" s="8"/>
+    </row>
+    <row r="1003" spans="10:10">
+      <c r="J1003" s="8"/>
+    </row>
+    <row r="1004" spans="10:10">
+      <c r="J1004" s="8"/>
+    </row>
+    <row r="1005" spans="10:10">
+      <c r="J1005" s="8"/>
+    </row>
+    <row r="1006" spans="10:10">
+      <c r="J1006" s="8"/>
+    </row>
+    <row r="1007" spans="10:10">
+      <c r="J1007" s="8"/>
+    </row>
+    <row r="1008" spans="10:10">
+      <c r="J1008" s="8"/>
+    </row>
+    <row r="1009" spans="10:10">
+      <c r="J1009" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF4F61-A0D5-454F-BA44-04F93C194C14}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="6" width="9.140625"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="17" width="9.140625"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="5">
+        <v>120</v>
+      </c>
+      <c r="F2" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45306</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="5">
+        <v>80</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9600</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45324</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45392</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="5">
+        <v>150</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45369</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45434</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <v>300</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45481</v>
+      </c>
+      <c r="H7" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45503</v>
+      </c>
+      <c r="H8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="5">
+        <v>400</v>
+      </c>
+      <c r="F9" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45515</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="5">
+        <v>250</v>
+      </c>
+      <c r="F10" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45571</v>
+      </c>
+      <c r="H10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12">
+        <v>19800</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45621</v>
+      </c>
+      <c r="H11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="39">
+        <v>5</v>
+      </c>
+      <c r="G13" s="39">
+        <v>6</v>
+      </c>
+      <c r="I13" s="39">
+        <v>7</v>
+      </c>
+      <c r="J13" s="14">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="14">
+        <v>9</v>
+      </c>
+      <c r="M13" s="14">
+        <v>11</v>
+      </c>
+      <c r="N13" s="14">
+        <v>12</v>
+      </c>
+      <c r="O13" s="14">
+        <v>13</v>
+      </c>
+      <c r="P13" s="14">
+        <v>14</v>
+      </c>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="45">
+        <v>100</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="49">
+        <v>45474</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="48"/>
+      <c r="O15" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="G16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1">
+      <c r="L17" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1">
+      <c r="L18" s="14">
+        <v>10</v>
+      </c>
+      <c r="M18" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1">
+      <c r="A19" s="14">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14">
+        <v>19</v>
+      </c>
+      <c r="F19" s="14">
+        <v>20</v>
+      </c>
+      <c r="G19" s="14">
+        <v>21</v>
+      </c>
+      <c r="H19" s="14">
+        <v>22</v>
+      </c>
+      <c r="I19" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="str">
+        <f>"Region"</f>
+        <v>Region</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="A21" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="19" t="str">
+        <f t="shared" ref="H21:I21" si="0">"East"</f>
+        <v>East</v>
+      </c>
+      <c r="I21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="O23" s="64"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1">
+      <c r="A24" s="28">
+        <v>1</v>
+      </c>
+      <c r="B24" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,A14:A15)</f>
+        <v>11000</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1">
+      <c r="A25" s="28">
+        <v>2</v>
+      </c>
+      <c r="B25" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,B14:B15)</f>
+        <v>1.728E+17</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1">
+      <c r="A26" s="28">
+        <v>3</v>
+      </c>
+      <c r="B26" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1">
+      <c r="A27" s="28">
+        <v>4</v>
+      </c>
+      <c r="B27" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,D14:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="30">
+        <f>DCOUNT($A$1:$H$11,$F$1,D14:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1">
+      <c r="A28" s="28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,E14:F15)</f>
+        <v>11000</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1">
+      <c r="A29" s="28">
+        <v>6</v>
+      </c>
+      <c r="B29" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,G14:H16)</f>
+        <v>11000</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1">
+      <c r="A30" s="28">
+        <v>7</v>
+      </c>
+      <c r="B30" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,I14:I15)</f>
+        <v>11000</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1">
+      <c r="A31" s="28">
+        <v>8</v>
+      </c>
+      <c r="B31" s="30">
+        <f>DPRODUCT(A1:G11,F1,J14:K15)</f>
+        <v>38000</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="A32" s="28">
+        <v>9</v>
+      </c>
+      <c r="B32" s="30">
+        <f>DPRODUCT(A1:G11,F1,L14:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="A33" s="53">
+        <v>10</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="28">
+        <v>11</v>
+      </c>
+      <c r="B34" s="30">
+        <f>DPRODUCT(A1:G11,F1,M14:M15)</f>
+        <v>19800</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="30">
+        <f>DPRODUCT(A1:G11,F1,M16:M17)</f>
+        <v>1.2356598988800001E+42</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="28">
+        <v>12</v>
+      </c>
+      <c r="B36" s="30">
+        <f>DPRODUCT(A1:G11,F1,N14:N15)</f>
+        <v>1.2356598988800001E+42</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="28">
+        <v>13</v>
+      </c>
+      <c r="B37" s="30">
+        <f>DPRODUCT(A1:G11,F1,O14:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="A38" s="28">
+        <v>14</v>
+      </c>
+      <c r="B38" s="30">
+        <f>DPRODUCT(A1:G11,F1,P14:P15)</f>
+        <v>1.2356598988800001E+42</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" s="28">
+        <v>15</v>
+      </c>
+      <c r="B39" s="30">
+        <f>DPRODUCT(A1:H11,F1,A20:A21)</f>
+        <v>5.1321600000000002E+25</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="28">
+        <v>16</v>
+      </c>
+      <c r="B40" s="30">
+        <f>DPRODUCT(A1:H11,F1,B20:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="A41" s="28">
+        <v>17</v>
+      </c>
+      <c r="B41" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,C20:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="A42" s="28">
+        <v>1</v>
+      </c>
+      <c r="B42" s="30" t="e">
+        <f>DPRODUCT($A$1:$H$1,$F$1,A14:A15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="A43" s="28">
+        <v>1</v>
+      </c>
+      <c r="B43" s="30" t="e">
+        <f>DPRODUCT($A$1:$H$11,J3,A14:A15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="A44" s="28">
+        <v>18</v>
+      </c>
+      <c r="B44" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,D20:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="A45" s="28">
+        <v>19</v>
+      </c>
+      <c r="B45" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,E20:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="A46" s="28">
+        <v>2</v>
+      </c>
+      <c r="B46" s="30" t="e">
+        <f>DPRODUCT(A2:$H$11,$F$1,B14:B15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="A47" s="28">
+        <v>20</v>
+      </c>
+      <c r="B47" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,F20:F21)</f>
+        <v>2188800000000</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="A48" s="28">
+        <v>21</v>
+      </c>
+      <c r="B48" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,G20:G21)</f>
+        <v>2188800000000</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="28">
+        <v>22</v>
+      </c>
+      <c r="B49" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,H20:H21)</f>
+        <v>1.728E+17</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" s="28">
+        <v>23</v>
+      </c>
+      <c r="B50" s="30">
+        <f>DPRODUCT($A$1:$H$11,$F$1,I20:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1">
+      <c r="A51" s="28">
+        <v>1</v>
+      </c>
+      <c r="B51" s="30">
+        <f>DPRODUCT(A1:$H$11,6,$A$14:$A$15)</f>
+        <v>11000</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="A52" s="28">
+        <v>1</v>
+      </c>
+      <c r="B52" s="30" t="e">
+        <f>DPRODUCT(A1:$H$11,0,$A$14:$A$15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="A53" s="28">
+        <v>1</v>
+      </c>
+      <c r="B53" s="30" t="e">
+        <f>DPRODUCT(A1:$H$11,9,$A$14:$A$15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="A54" s="28">
+        <v>27</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="50"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="A55" s="28">
+        <v>28</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="50"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1">
+      <c r="C56" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
 </file>